--- a/EARFQUAKE csv database.xlsx
+++ b/EARFQUAKE csv database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A94EA26-8235-4972-831D-855A6855FB2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C409D-95D3-4AE8-AB91-1C69AA9F6E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" xr2:uid="{88E31ADE-4FEB-400E-A520-2677CDF51354}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="140">
   <si>
     <t>magnitude</t>
   </si>
@@ -445,312 +445,6 @@
   </si>
   <si>
     <t>Chile</t>
-  </si>
-  <si>
-    <t>Katabu, Indonesia</t>
-  </si>
-  <si>
-    <t>San Pedro, Philippines</t>
-  </si>
-  <si>
-    <t>Popondetta, Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Batang, Indonesia</t>
-  </si>
-  <si>
-    <t>Santa Marֳ­a Xadani, Mexico</t>
-  </si>
-  <si>
-    <t>Naze, Japan</t>
-  </si>
-  <si>
-    <t>San Pedro de Atacama, Chile</t>
-  </si>
-  <si>
-    <t>nn</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>Monte Cristo Range, NV Earthquake</t>
-  </si>
-  <si>
-    <t>Lata, Solomon Islands</t>
-  </si>
-  <si>
-    <t>Banda Sea</t>
-  </si>
-  <si>
-    <t>Nֳ©a Anatolֳ­, Greece</t>
-  </si>
-  <si>
-    <t>Stanley, Idaho</t>
-  </si>
-  <si>
-    <t>Severo-Kurilג€™sk, Russia</t>
-  </si>
-  <si>
-    <t>Kurilג€™sk, Russia</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Lucea, Jamaica</t>
-  </si>
-  <si>
-    <t>Do?anyol, Turkey</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Magsaysay, Philippines</t>
-  </si>
-  <si>
-    <t>Bitung, Indonesia</t>
-  </si>
-  <si>
-    <t>Ndoi Island, Fiji</t>
-  </si>
-  <si>
-    <t>Kisante, Philippines</t>
-  </si>
-  <si>
-    <t>Columbio, Philippines</t>
-  </si>
-  <si>
-    <t>Constituciֳ³n, Chile</t>
-  </si>
-  <si>
-    <t>Kairatu, Indonesia</t>
-  </si>
-  <si>
-    <t>Bristol Island, South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
-  </si>
-  <si>
-    <t>San Antonio, Chile</t>
-  </si>
-  <si>
-    <t>Lakatoro, Vanuatu</t>
-  </si>
-  <si>
-    <t>Laiwui, Indonesia</t>
-  </si>
-  <si>
-    <t>Broome, Australia</t>
-  </si>
-  <si>
-    <t>Kota Ternate, Indonesia</t>
-  </si>
-  <si>
-    <t>ci</t>
-  </si>
-  <si>
-    <t>mw</t>
-  </si>
-  <si>
-    <t>Searles Valley, CA</t>
-  </si>
-  <si>
-    <t>Saumlaki, Indonesia</t>
-  </si>
-  <si>
-    <t>L'Esperance Rock, New Zealand</t>
-  </si>
-  <si>
-    <t>La Libertad, El Salvador</t>
-  </si>
-  <si>
-    <t>Navarro, Peru</t>
-  </si>
-  <si>
-    <t>Namatanai, Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Bulolo, Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Luwuk, Indonesia</t>
-  </si>
-  <si>
-    <t>Palora, Ecuador</t>
-  </si>
-  <si>
-    <t>Puerto Madero, Mexico</t>
-  </si>
-  <si>
-    <t>Prince Edward Islands region</t>
-  </si>
-  <si>
-    <t>Coquimbo, Chile</t>
-  </si>
-  <si>
-    <t>Molucca Sea</t>
-  </si>
-  <si>
-    <t>Tarauaca, Brazil</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>Point MacKenzie, Alaska</t>
-  </si>
-  <si>
-    <t>Levuka, Fiji</t>
-  </si>
-  <si>
-    <t>Olonkinbyen, Svalbard and Jan Mayen</t>
-  </si>
-  <si>
-    <t>Lithakiֳ¡, Greece</t>
-  </si>
-  <si>
-    <t>Port McNeill, Canada</t>
-  </si>
-  <si>
-    <t>Ozernovskiy, Russia</t>
-  </si>
-  <si>
-    <t>Palu, Indonesia</t>
-  </si>
-  <si>
-    <t>Kirakira, Solomon Islands</t>
-  </si>
-  <si>
-    <t>Chitose, Japan</t>
-  </si>
-  <si>
-    <t>Iֳ±apari, Peru</t>
-  </si>
-  <si>
-    <t>Carֳ÷pano, Venezuela</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Labuan Lombok, Indonesia</t>
-  </si>
-  <si>
-    <t>Labuan Bajo, Indonesia</t>
-  </si>
-  <si>
-    <t>Adak, Alaska</t>
-  </si>
-  <si>
-    <t>hv</t>
-  </si>
-  <si>
-    <t>Leilani Estates, Hawaii</t>
-  </si>
-  <si>
-    <t>Boyuibe, Bolivia</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Kokopo, Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Tari, Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Pinotepa de Don Luis, Mexico</t>
-  </si>
-  <si>
-    <t>Chiniak, Alaska</t>
-  </si>
-  <si>
-    <t>Atiquipa, Peru</t>
-  </si>
-  <si>
-    <t>Barra Patuca, Honduras</t>
-  </si>
-  <si>
-    <t>Kawalu, Indonesia</t>
-  </si>
-  <si>
-    <t>Bouvet Island region</t>
-  </si>
-  <si>
-    <t>Parrita, Costa Rica</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>?alabja, Iraq</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Angoram, Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Maumere, Indonesia</t>
-  </si>
-  <si>
-    <t>Attu Station, Alaska</t>
-  </si>
-  <si>
-    <t>Matzaco, Mexico</t>
-  </si>
-  <si>
-    <t>Chiapas, Mexico</t>
-  </si>
-  <si>
-    <t>Mawu, China</t>
-  </si>
-  <si>
-    <t>Kos, Greece</t>
-  </si>
-  <si>
-    <t>Komandorskiye Ostrova, Russia region</t>
-  </si>
-  <si>
-    <t>Auckland Islands, New Zealand region</t>
-  </si>
-  <si>
-    <t>Lim-oo, Philippines</t>
-  </si>
-  <si>
-    <t>Puerto San Josֳ©, Guatemala</t>
-  </si>
-  <si>
-    <t>San Pablo, Guatemala</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Poso, Indonesia</t>
-  </si>
-  <si>
-    <t>Burias, Philippines</t>
-  </si>
-  <si>
-    <t>Valparaֳ­so, Chile</t>
-  </si>
-  <si>
-    <t>Moijabana, Botswana</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Kamchatsk Staryy, Russia</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F685E06-7BDD-4E61-9849-843FF8BC604C}">
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="U247" sqref="U247"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="S128" sqref="S128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7628,6574 +7322,397 @@
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>6.9</v>
-      </c>
-      <c r="B126" s="1">
-        <v>44064.17291666667</v>
-      </c>
-      <c r="C126">
-        <v>4</v>
-      </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-      <c r="E126" t="s">
-        <v>18</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>749</v>
-      </c>
-      <c r="H126" t="s">
-        <v>19</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="K126">
-        <v>20</v>
-      </c>
-      <c r="L126" t="s">
-        <v>20</v>
-      </c>
-      <c r="M126">
-        <v>624</v>
-      </c>
-      <c r="N126">
-        <v>-6.6703999999999999</v>
-      </c>
-      <c r="O126">
-        <v>123.49299999999999</v>
-      </c>
-      <c r="P126" t="s">
-        <v>140</v>
-      </c>
-      <c r="R126" t="s">
-        <v>40</v>
-      </c>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>6.9</v>
-      </c>
-      <c r="B127" s="1">
-        <v>44061.936805555553</v>
-      </c>
-      <c r="C127">
-        <v>4</v>
-      </c>
-      <c r="D127">
-        <v>4</v>
-      </c>
-      <c r="E127" t="s">
-        <v>18</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>735</v>
-      </c>
-      <c r="H127" t="s">
-        <v>19</v>
-      </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>1.716</v>
-      </c>
-      <c r="K127">
-        <v>25</v>
-      </c>
-      <c r="L127" t="s">
-        <v>20</v>
-      </c>
-      <c r="M127">
-        <v>26</v>
-      </c>
-      <c r="N127">
-        <v>-4.2790999999999997</v>
-      </c>
-      <c r="O127">
-        <v>101.215</v>
-      </c>
-      <c r="P127" t="s">
-        <v>69</v>
-      </c>
-      <c r="R127" t="s">
-        <v>40</v>
-      </c>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>6.8</v>
-      </c>
-      <c r="B128" s="1">
-        <v>44061.932638888888</v>
-      </c>
-      <c r="C128">
-        <v>5</v>
-      </c>
-      <c r="D128">
-        <v>4</v>
-      </c>
-      <c r="E128" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>716</v>
-      </c>
-      <c r="H128" t="s">
-        <v>19</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="K128">
-        <v>34</v>
-      </c>
-      <c r="L128" t="s">
-        <v>20</v>
-      </c>
-      <c r="M128">
-        <v>22</v>
-      </c>
-      <c r="N128">
-        <v>-4.3723999999999998</v>
-      </c>
-      <c r="O128">
-        <v>101.095</v>
-      </c>
-      <c r="P128" t="s">
-        <v>69</v>
-      </c>
-      <c r="R128" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>6.6</v>
-      </c>
-      <c r="B129" s="1">
-        <v>44061.002083333333</v>
-      </c>
-      <c r="C129">
-        <v>9</v>
-      </c>
-      <c r="D129">
-        <v>8</v>
-      </c>
-      <c r="E129" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>784</v>
-      </c>
-      <c r="H129" t="s">
-        <v>19</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>5.1280000000000001</v>
-      </c>
-      <c r="K129">
-        <v>14</v>
-      </c>
-      <c r="L129" t="s">
-        <v>20</v>
-      </c>
-      <c r="M129">
-        <v>10</v>
-      </c>
-      <c r="N129">
-        <v>12.006500000000001</v>
-      </c>
-      <c r="O129">
-        <v>124.13</v>
-      </c>
-      <c r="P129" t="s">
-        <v>141</v>
-      </c>
-      <c r="R129" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>7.8</v>
-      </c>
-      <c r="B130" s="1">
-        <v>44034.258333333331</v>
-      </c>
-      <c r="C130">
-        <v>9</v>
-      </c>
-      <c r="D130">
-        <v>7</v>
-      </c>
-      <c r="E130" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>1111</v>
-      </c>
-      <c r="H130" t="s">
-        <v>19</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0.621</v>
-      </c>
-      <c r="K130">
-        <v>60</v>
-      </c>
-      <c r="L130" t="s">
-        <v>20</v>
-      </c>
-      <c r="M130">
-        <v>28</v>
-      </c>
-      <c r="N130">
-        <v>55.107900000000001</v>
-      </c>
-      <c r="O130">
-        <v>-158.477</v>
-      </c>
-      <c r="P130" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>7</v>
-      </c>
-      <c r="B131" s="1">
-        <v>44029.118055555555</v>
-      </c>
-      <c r="C131">
-        <v>6</v>
-      </c>
-      <c r="D131">
-        <v>7</v>
-      </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>820</v>
-      </c>
-      <c r="H131" t="s">
-        <v>19</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>1.671</v>
-      </c>
-      <c r="K131">
-        <v>18</v>
-      </c>
-      <c r="L131" t="s">
-        <v>20</v>
-      </c>
-      <c r="M131">
-        <v>73</v>
-      </c>
-      <c r="N131">
-        <v>-7.8470000000000004</v>
-      </c>
-      <c r="O131">
-        <v>147.755</v>
-      </c>
-      <c r="P131" t="s">
-        <v>142</v>
-      </c>
-      <c r="R131" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>6.6</v>
-      </c>
-      <c r="B132" s="1">
-        <v>44018.95416666667</v>
-      </c>
-      <c r="C132">
-        <v>4</v>
-      </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132" t="s">
-        <v>18</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>684</v>
-      </c>
-      <c r="H132" t="s">
-        <v>19</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>1.458</v>
-      </c>
-      <c r="K132">
-        <v>14</v>
-      </c>
-      <c r="L132" t="s">
-        <v>20</v>
-      </c>
-      <c r="M132">
-        <v>533.76</v>
-      </c>
-      <c r="N132">
-        <v>-5.6368</v>
-      </c>
-      <c r="O132">
-        <v>110.678</v>
-      </c>
-      <c r="P132" t="s">
-        <v>143</v>
-      </c>
-      <c r="R132" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>7.4</v>
-      </c>
-      <c r="B133" s="1">
-        <v>44005.645138888889</v>
-      </c>
-      <c r="C133">
-        <v>8</v>
-      </c>
-      <c r="D133">
-        <v>8</v>
-      </c>
-      <c r="E133" t="s">
-        <v>51</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>1494</v>
-      </c>
-      <c r="H133" t="s">
-        <v>19</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0.151</v>
-      </c>
-      <c r="K133">
-        <v>30</v>
-      </c>
-      <c r="L133" t="s">
-        <v>20</v>
-      </c>
-      <c r="M133">
-        <v>20</v>
-      </c>
-      <c r="N133">
-        <v>15.9163</v>
-      </c>
-      <c r="O133">
-        <v>-95.953299999999999</v>
-      </c>
-      <c r="P133" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>76</v>
-      </c>
-      <c r="R133" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>7.4</v>
-      </c>
-      <c r="B134" s="1">
-        <v>44000.53402777778</v>
-      </c>
-      <c r="C134">
-        <v>7</v>
-      </c>
-      <c r="D134">
-        <v>7</v>
-      </c>
-      <c r="E134" t="s">
-        <v>18</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>873</v>
-      </c>
-      <c r="H134" t="s">
-        <v>19</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>4.0350000000000001</v>
-      </c>
-      <c r="K134">
-        <v>23</v>
-      </c>
-      <c r="L134" t="s">
-        <v>20</v>
-      </c>
-      <c r="M134">
-        <v>10</v>
-      </c>
-      <c r="N134">
-        <v>-33.293799999999997</v>
-      </c>
-      <c r="O134">
-        <v>-177.83799999999999</v>
-      </c>
-      <c r="P134" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>6.6</v>
-      </c>
-      <c r="B135" s="1">
-        <v>43995.660416666666</v>
-      </c>
-      <c r="C135">
-        <v>5</v>
-      </c>
-      <c r="D135">
-        <v>4</v>
-      </c>
-      <c r="E135" t="s">
-        <v>18</v>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>734</v>
-      </c>
-      <c r="H135" t="s">
-        <v>19</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="K135">
-        <v>18</v>
-      </c>
-      <c r="L135" t="s">
-        <v>20</v>
-      </c>
-      <c r="M135">
-        <v>165</v>
-      </c>
-      <c r="N135">
-        <v>28.938600000000001</v>
-      </c>
-      <c r="O135">
-        <v>128.262</v>
-      </c>
-      <c r="P135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>6.8</v>
-      </c>
-      <c r="B136" s="1">
-        <v>43985.315972222219</v>
-      </c>
-      <c r="C136">
-        <v>6</v>
-      </c>
-      <c r="D136">
-        <v>6</v>
-      </c>
-      <c r="E136" t="s">
-        <v>18</v>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>835</v>
-      </c>
-      <c r="H136" t="s">
-        <v>19</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="K136">
-        <v>21</v>
-      </c>
-      <c r="L136" t="s">
-        <v>20</v>
-      </c>
-      <c r="M136">
-        <v>112</v>
-      </c>
-      <c r="N136">
-        <v>-23.296600000000002</v>
-      </c>
-      <c r="O136">
-        <v>-68.420400000000001</v>
-      </c>
-      <c r="P136" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>26</v>
-      </c>
-      <c r="R136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>6.5</v>
-      </c>
-      <c r="B137" s="1">
-        <v>43966.460416666669</v>
-      </c>
-      <c r="C137">
-        <v>7</v>
-      </c>
-      <c r="D137">
-        <v>8</v>
-      </c>
-      <c r="E137" t="s">
-        <v>18</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>1320</v>
-      </c>
-      <c r="H137" t="s">
-        <v>147</v>
-      </c>
-      <c r="I137">
-        <v>27</v>
-      </c>
-      <c r="J137">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="K137">
-        <v>55.79</v>
-      </c>
-      <c r="L137" t="s">
-        <v>148</v>
-      </c>
-      <c r="M137">
-        <v>2.7</v>
-      </c>
-      <c r="N137">
-        <v>38.168900000000001</v>
-      </c>
-      <c r="O137">
-        <v>-117.85</v>
-      </c>
-      <c r="P137" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>76</v>
-      </c>
-      <c r="R137" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>6.6</v>
-      </c>
-      <c r="B138" s="1">
-        <v>43963.945138888892</v>
-      </c>
-      <c r="C138">
-        <v>4</v>
-      </c>
-      <c r="D138">
-        <v>6</v>
-      </c>
-      <c r="E138" t="s">
-        <v>18</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>671</v>
-      </c>
-      <c r="H138" t="s">
-        <v>19</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>3.403</v>
-      </c>
-      <c r="K138">
-        <v>12</v>
-      </c>
-      <c r="L138" t="s">
-        <v>20</v>
-      </c>
-      <c r="M138">
-        <v>107</v>
-      </c>
-      <c r="N138">
-        <v>-12.0662</v>
-      </c>
-      <c r="O138">
-        <v>166.648</v>
-      </c>
-      <c r="P138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>6.8</v>
-      </c>
-      <c r="B139" s="1">
-        <v>43957.578472222223</v>
-      </c>
-      <c r="C139">
-        <v>4</v>
-      </c>
-      <c r="D139">
-        <v>6</v>
-      </c>
-      <c r="E139" t="s">
-        <v>18</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>738</v>
-      </c>
-      <c r="H139" t="s">
-        <v>19</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>1.921</v>
-      </c>
-      <c r="K139">
-        <v>16</v>
-      </c>
-      <c r="L139" t="s">
-        <v>20</v>
-      </c>
-      <c r="M139">
-        <v>96</v>
-      </c>
-      <c r="N139">
-        <v>-6.7762000000000002</v>
-      </c>
-      <c r="O139">
-        <v>129.785</v>
-      </c>
-      <c r="P139" t="s">
-        <v>151</v>
-      </c>
-      <c r="R139" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>6.5</v>
-      </c>
-      <c r="B140" s="1">
-        <v>43953.535416666666</v>
-      </c>
-      <c r="C140">
-        <v>7</v>
-      </c>
-      <c r="D140">
-        <v>6</v>
-      </c>
-      <c r="E140" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-      <c r="G140">
-        <v>678</v>
-      </c>
-      <c r="H140" t="s">
-        <v>19</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="K140">
-        <v>19</v>
-      </c>
-      <c r="L140" t="s">
-        <v>20</v>
-      </c>
-      <c r="M140">
-        <v>10</v>
-      </c>
-      <c r="N140">
-        <v>34.181800000000003</v>
-      </c>
-      <c r="O140">
-        <v>25.710100000000001</v>
-      </c>
-      <c r="P140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>6.5</v>
-      </c>
-      <c r="B141" s="1">
-        <v>43921.994444444441</v>
-      </c>
-      <c r="C141">
-        <v>8</v>
-      </c>
-      <c r="D141">
-        <v>8</v>
-      </c>
-      <c r="E141" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>1410</v>
-      </c>
-      <c r="H141" t="s">
-        <v>19</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="K141">
-        <v>31</v>
-      </c>
-      <c r="L141" t="s">
-        <v>20</v>
-      </c>
-      <c r="M141">
-        <v>12.06</v>
-      </c>
-      <c r="N141">
-        <v>44.464599999999997</v>
-      </c>
-      <c r="O141">
-        <v>-115.11799999999999</v>
-      </c>
-      <c r="P141" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>76</v>
-      </c>
-      <c r="R141" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>7.5</v>
-      </c>
-      <c r="B142" s="1">
-        <v>43915.117361111108</v>
-      </c>
-      <c r="C142">
-        <v>6</v>
-      </c>
-      <c r="D142">
-        <v>5</v>
-      </c>
-      <c r="E142" t="s">
-        <v>18</v>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>879</v>
-      </c>
-      <c r="H142" t="s">
-        <v>19</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>4.109</v>
-      </c>
-      <c r="K142">
-        <v>12</v>
-      </c>
-      <c r="L142" t="s">
-        <v>20</v>
-      </c>
-      <c r="M142">
-        <v>57.8</v>
-      </c>
-      <c r="N142">
-        <v>48.963799999999999</v>
-      </c>
-      <c r="O142">
-        <v>157.69499999999999</v>
-      </c>
-      <c r="P142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>7</v>
-      </c>
-      <c r="B143" s="1">
-        <v>43874.439583333333</v>
-      </c>
-      <c r="C143">
-        <v>5</v>
-      </c>
-      <c r="D143">
-        <v>6</v>
-      </c>
-      <c r="E143" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>770</v>
-      </c>
-      <c r="H143" t="s">
-        <v>19</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143">
-        <v>4.5010000000000003</v>
-      </c>
-      <c r="K143">
-        <v>25</v>
-      </c>
-      <c r="L143" t="s">
-        <v>20</v>
-      </c>
-      <c r="M143">
-        <v>143</v>
-      </c>
-      <c r="N143">
-        <v>45.616100000000003</v>
-      </c>
-      <c r="O143">
-        <v>148.959</v>
-      </c>
-      <c r="P143" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>44</v>
-      </c>
-      <c r="R143" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>7.7</v>
-      </c>
-      <c r="B144" s="1">
-        <v>43858.798611111109</v>
-      </c>
-      <c r="C144">
-        <v>9</v>
-      </c>
-      <c r="D144">
-        <v>6</v>
-      </c>
-      <c r="E144" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1812</v>
-      </c>
-      <c r="H144" t="s">
-        <v>19</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>1.657</v>
-      </c>
-      <c r="K144">
-        <v>26</v>
-      </c>
-      <c r="L144" t="s">
-        <v>20</v>
-      </c>
-      <c r="M144">
-        <v>14.86</v>
-      </c>
-      <c r="N144">
-        <v>19.4193</v>
-      </c>
-      <c r="O144">
-        <v>-78.756</v>
-      </c>
-      <c r="P144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>6.7</v>
-      </c>
-      <c r="B145" s="1">
-        <v>43854.746527777781</v>
-      </c>
-      <c r="C145">
-        <v>8</v>
-      </c>
-      <c r="D145">
-        <v>9</v>
-      </c>
-      <c r="E145" t="s">
-        <v>51</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>1247</v>
-      </c>
-      <c r="H145" t="s">
-        <v>19</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0.87</v>
-      </c>
-      <c r="K145">
-        <v>49</v>
-      </c>
-      <c r="L145" t="s">
-        <v>20</v>
-      </c>
-      <c r="M145">
-        <v>10</v>
-      </c>
-      <c r="N145">
-        <v>38.431199999999997</v>
-      </c>
-      <c r="O145">
-        <v>39.060899999999997</v>
-      </c>
-      <c r="P145" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>44</v>
-      </c>
-      <c r="R145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>6.8</v>
-      </c>
-      <c r="B146" s="1">
-        <v>43814.257638888892</v>
-      </c>
-      <c r="C146">
-        <v>9</v>
-      </c>
-      <c r="D146">
-        <v>7</v>
-      </c>
-      <c r="E146" t="s">
-        <v>23</v>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
-        <v>825</v>
-      </c>
-      <c r="H146" t="s">
-        <v>19</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="K146">
-        <v>39</v>
-      </c>
-      <c r="L146" t="s">
-        <v>20</v>
-      </c>
-      <c r="M146">
-        <v>18</v>
-      </c>
-      <c r="N146">
-        <v>6.6969000000000003</v>
-      </c>
-      <c r="O146">
-        <v>125.17400000000001</v>
-      </c>
-      <c r="P146" t="s">
-        <v>160</v>
-      </c>
-      <c r="R146" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>7.1</v>
-      </c>
-      <c r="B147" s="1">
-        <v>43783.678472222222</v>
-      </c>
-      <c r="C147">
-        <v>6</v>
-      </c>
-      <c r="D147">
-        <v>6</v>
-      </c>
-      <c r="E147" t="s">
-        <v>18</v>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>799</v>
-      </c>
-      <c r="H147" t="s">
-        <v>19</v>
-      </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="K147">
-        <v>11</v>
-      </c>
-      <c r="L147" t="s">
-        <v>20</v>
-      </c>
-      <c r="M147">
-        <v>33</v>
-      </c>
-      <c r="N147">
-        <v>1.6213</v>
-      </c>
-      <c r="O147">
-        <v>126.416</v>
-      </c>
-      <c r="P147" t="s">
-        <v>161</v>
-      </c>
-      <c r="R147" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>6.5</v>
-      </c>
-      <c r="B148" s="1">
-        <v>43777.447222222225</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>650</v>
-      </c>
-      <c r="H148" t="s">
-        <v>19</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>4.7649999999999997</v>
-      </c>
-      <c r="K148">
-        <v>25</v>
-      </c>
-      <c r="L148" t="s">
-        <v>20</v>
-      </c>
-      <c r="M148">
-        <v>577</v>
-      </c>
-      <c r="N148">
-        <v>-21.944900000000001</v>
-      </c>
-      <c r="O148">
-        <v>-179.511</v>
-      </c>
-      <c r="P148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>6.6</v>
-      </c>
-      <c r="B149" s="1">
-        <v>43773.946527777778</v>
-      </c>
-      <c r="C149">
-        <v>4</v>
-      </c>
-      <c r="D149">
-        <v>4</v>
-      </c>
-      <c r="E149" t="s">
-        <v>18</v>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>673</v>
-      </c>
-      <c r="H149" t="s">
-        <v>19</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>5.0860000000000003</v>
-      </c>
-      <c r="K149">
-        <v>48</v>
-      </c>
-      <c r="L149" t="s">
-        <v>20</v>
-      </c>
-      <c r="M149">
-        <v>10</v>
-      </c>
-      <c r="N149">
-        <v>-18.5747</v>
-      </c>
-      <c r="O149">
-        <v>-175.27199999999999</v>
-      </c>
-      <c r="P149" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>6.5</v>
-      </c>
-      <c r="B150" s="1">
-        <v>43769.049305555556</v>
-      </c>
-      <c r="C150">
-        <v>9</v>
-      </c>
-      <c r="D150">
-        <v>7</v>
-      </c>
-      <c r="E150" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>733</v>
-      </c>
-      <c r="H150" t="s">
-        <v>19</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="K150">
-        <v>19</v>
-      </c>
-      <c r="L150" t="s">
-        <v>20</v>
-      </c>
-      <c r="M150">
-        <v>10</v>
-      </c>
-      <c r="N150">
-        <v>6.9097999999999997</v>
-      </c>
-      <c r="O150">
-        <v>125.178</v>
-      </c>
-      <c r="P150" t="s">
-        <v>163</v>
-      </c>
-      <c r="R150" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>6.6</v>
-      </c>
-      <c r="B151" s="1">
-        <v>43767.044444444444</v>
-      </c>
-      <c r="C151">
-        <v>9</v>
-      </c>
-      <c r="D151">
-        <v>7</v>
-      </c>
-      <c r="E151" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>780</v>
-      </c>
-      <c r="H151" t="s">
-        <v>19</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0.64600000000000002</v>
-      </c>
-      <c r="K151">
-        <v>24</v>
-      </c>
-      <c r="L151" t="s">
-        <v>20</v>
-      </c>
-      <c r="M151">
-        <v>15</v>
-      </c>
-      <c r="N151">
-        <v>6.7567000000000004</v>
-      </c>
-      <c r="O151">
-        <v>125.008</v>
-      </c>
-      <c r="P151" t="s">
-        <v>164</v>
-      </c>
-      <c r="R151" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>6.7</v>
-      </c>
-      <c r="B152" s="1">
-        <v>43737.664583333331</v>
-      </c>
-      <c r="C152">
-        <v>7</v>
-      </c>
-      <c r="D152">
-        <v>6</v>
-      </c>
-      <c r="E152" t="s">
-        <v>18</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>844</v>
-      </c>
-      <c r="H152" t="s">
-        <v>19</v>
-      </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>1.2689999999999999</v>
-      </c>
-      <c r="K152">
-        <v>98</v>
-      </c>
-      <c r="L152" t="s">
-        <v>20</v>
-      </c>
-      <c r="M152">
-        <v>11</v>
-      </c>
-      <c r="N152">
-        <v>-35.4758</v>
-      </c>
-      <c r="O152">
-        <v>-73.162999999999997</v>
-      </c>
-      <c r="P152" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>6.5</v>
-      </c>
-      <c r="B153" s="1">
-        <v>43733.990277777775</v>
-      </c>
-      <c r="C153">
-        <v>7</v>
-      </c>
-      <c r="D153">
-        <v>7</v>
-      </c>
-      <c r="E153" t="s">
-        <v>23</v>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>656</v>
-      </c>
-      <c r="H153" t="s">
-        <v>19</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>3.9089999999999998</v>
-      </c>
-      <c r="K153">
-        <v>15</v>
-      </c>
-      <c r="L153" t="s">
-        <v>20</v>
-      </c>
-      <c r="M153">
-        <v>12.26</v>
-      </c>
-      <c r="N153">
-        <v>-3.4527999999999999</v>
-      </c>
-      <c r="O153">
-        <v>128.37</v>
-      </c>
-      <c r="P153" t="s">
-        <v>166</v>
-      </c>
-      <c r="R153" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>6.6</v>
-      </c>
-      <c r="B154" s="1">
-        <v>43709.662499999999</v>
-      </c>
-      <c r="C154">
-        <v>2</v>
-      </c>
-      <c r="D154">
-        <v>3</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>671</v>
-      </c>
-      <c r="H154" t="s">
-        <v>19</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>4.1210000000000004</v>
-      </c>
-      <c r="K154">
-        <v>19</v>
-      </c>
-      <c r="L154" t="s">
-        <v>20</v>
-      </c>
-      <c r="M154">
-        <v>591</v>
-      </c>
-      <c r="N154">
-        <v>-20.364100000000001</v>
-      </c>
-      <c r="O154">
-        <v>-178.57</v>
-      </c>
-      <c r="P154" t="s">
-        <v>162</v>
-      </c>
-      <c r="R154" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>6.6</v>
-      </c>
-      <c r="B155" s="1">
-        <v>43704.996527777781</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>4</v>
-      </c>
-      <c r="E155" t="s">
-        <v>18</v>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>670</v>
-      </c>
-      <c r="H155" t="s">
-        <v>19</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>12.896000000000001</v>
-      </c>
-      <c r="K155">
-        <v>19</v>
-      </c>
-      <c r="L155" t="s">
-        <v>20</v>
-      </c>
-      <c r="M155">
-        <v>16</v>
-      </c>
-      <c r="N155">
-        <v>-60.215200000000003</v>
-      </c>
-      <c r="O155">
-        <v>-26.580100000000002</v>
-      </c>
-      <c r="P155" t="s">
-        <v>167</v>
-      </c>
-      <c r="R155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>6.9</v>
-      </c>
-      <c r="B156" s="1">
-        <v>43679.502083333333</v>
-      </c>
-      <c r="C156">
-        <v>4</v>
-      </c>
-      <c r="D156">
-        <v>6</v>
-      </c>
-      <c r="E156" t="s">
-        <v>18</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>875</v>
-      </c>
-      <c r="H156" t="s">
-        <v>19</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>2.839</v>
-      </c>
-      <c r="K156">
-        <v>23</v>
-      </c>
-      <c r="L156" t="s">
-        <v>20</v>
-      </c>
-      <c r="M156">
-        <v>49</v>
-      </c>
-      <c r="N156">
-        <v>-7.2821999999999996</v>
-      </c>
-      <c r="O156">
-        <v>104.791</v>
-      </c>
-      <c r="P156" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>6.8</v>
-      </c>
-      <c r="B157" s="1">
-        <v>43678.769444444442</v>
-      </c>
-      <c r="C157">
-        <v>6</v>
-      </c>
-      <c r="D157">
-        <v>6</v>
-      </c>
-      <c r="E157" t="s">
-        <v>18</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>947</v>
-      </c>
-      <c r="H157" t="s">
-        <v>19</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="K157">
-        <v>35</v>
-      </c>
-      <c r="L157" t="s">
-        <v>20</v>
-      </c>
-      <c r="M157">
-        <v>25</v>
-      </c>
-      <c r="N157">
-        <v>-34.236400000000003</v>
-      </c>
-      <c r="O157">
-        <v>-72.310199999999995</v>
-      </c>
-      <c r="P157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>6.6</v>
-      </c>
-      <c r="B158" s="1">
-        <v>43677.626388888886</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>4</v>
-      </c>
-      <c r="E158" t="s">
-        <v>18</v>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>670</v>
-      </c>
-      <c r="H158" t="s">
-        <v>19</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>6.024</v>
-      </c>
-      <c r="K158">
-        <v>30</v>
-      </c>
-      <c r="L158" t="s">
-        <v>20</v>
-      </c>
-      <c r="M158">
-        <v>181</v>
-      </c>
-      <c r="N158">
-        <v>-16.198499999999999</v>
-      </c>
-      <c r="O158">
-        <v>167.99799999999999</v>
-      </c>
-      <c r="P158" t="s">
-        <v>170</v>
-      </c>
-      <c r="R158" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>7.2</v>
-      </c>
-      <c r="B159" s="1">
-        <v>43660.381944444445</v>
-      </c>
-      <c r="C159">
-        <v>7</v>
-      </c>
-      <c r="D159">
-        <v>7</v>
-      </c>
-      <c r="E159" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>809</v>
-      </c>
-      <c r="H159" t="s">
-        <v>19</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>1.504</v>
-      </c>
-      <c r="K159">
-        <v>38</v>
-      </c>
-      <c r="L159" t="s">
-        <v>20</v>
-      </c>
-      <c r="M159">
-        <v>18.98</v>
-      </c>
-      <c r="N159">
-        <v>-0.58579999999999999</v>
-      </c>
-      <c r="O159">
-        <v>128.03399999999999</v>
-      </c>
-      <c r="P159" t="s">
-        <v>171</v>
-      </c>
-      <c r="R159" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>6.6</v>
-      </c>
-      <c r="B160" s="1">
-        <v>43660.23541666667</v>
-      </c>
-      <c r="C160">
-        <v>5</v>
-      </c>
-      <c r="D160">
-        <v>5</v>
-      </c>
-      <c r="E160" t="s">
-        <v>18</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>791</v>
-      </c>
-      <c r="H160" t="s">
-        <v>19</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>2.9780000000000002</v>
-      </c>
-      <c r="K160">
-        <v>32</v>
-      </c>
-      <c r="L160" t="s">
-        <v>20</v>
-      </c>
-      <c r="M160">
-        <v>10</v>
-      </c>
-      <c r="N160">
-        <v>-18.2242</v>
-      </c>
-      <c r="O160">
-        <v>120.358</v>
-      </c>
-      <c r="P160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>6.9</v>
-      </c>
-      <c r="B161" s="1">
-        <v>43653.630555555559</v>
-      </c>
-      <c r="C161">
-        <v>7</v>
-      </c>
-      <c r="D161">
-        <v>5</v>
-      </c>
-      <c r="E161" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>747</v>
-      </c>
-      <c r="H161" t="s">
-        <v>19</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="K161">
-        <v>21</v>
-      </c>
-      <c r="L161" t="s">
-        <v>20</v>
-      </c>
-      <c r="M161">
-        <v>35</v>
-      </c>
-      <c r="N161">
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="O161">
-        <v>126.18899999999999</v>
-      </c>
-      <c r="P161" t="s">
-        <v>173</v>
-      </c>
-      <c r="R161" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>7.1</v>
-      </c>
-      <c r="B162" s="1">
-        <v>43652.138194444444</v>
-      </c>
-      <c r="C162">
-        <v>9</v>
-      </c>
-      <c r="D162">
-        <v>9</v>
-      </c>
-      <c r="E162" t="s">
-        <v>23</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>1646</v>
-      </c>
-      <c r="H162" t="s">
-        <v>174</v>
-      </c>
-      <c r="I162">
-        <v>77</v>
-      </c>
-      <c r="J162">
-        <v>4.616E-2</v>
-      </c>
-      <c r="K162">
-        <v>43</v>
-      </c>
-      <c r="L162" t="s">
-        <v>175</v>
-      </c>
-      <c r="M162">
-        <v>8</v>
-      </c>
-      <c r="N162">
-        <v>35.769500000000001</v>
-      </c>
-      <c r="O162">
-        <v>-117.599</v>
-      </c>
-      <c r="P162" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>76</v>
-      </c>
-      <c r="R162" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>7.3</v>
-      </c>
-      <c r="B163" s="1">
-        <v>43640.120138888888</v>
-      </c>
-      <c r="C163">
-        <v>4</v>
-      </c>
-      <c r="D163">
-        <v>6</v>
-      </c>
-      <c r="E163" t="s">
-        <v>18</v>
-      </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>952</v>
-      </c>
-      <c r="H163" t="s">
-        <v>19</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>2.629</v>
-      </c>
-      <c r="K163">
-        <v>16</v>
-      </c>
-      <c r="L163" t="s">
-        <v>20</v>
-      </c>
-      <c r="M163">
-        <v>212</v>
-      </c>
-      <c r="N163">
-        <v>-6.4077999999999999</v>
-      </c>
-      <c r="O163">
-        <v>129.16900000000001</v>
-      </c>
-      <c r="P163" t="s">
-        <v>177</v>
-      </c>
-      <c r="R163" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>7.3</v>
-      </c>
-      <c r="B164" s="1">
-        <v>43631.954861111109</v>
-      </c>
-      <c r="C164">
-        <v>8</v>
-      </c>
-      <c r="D164">
-        <v>6</v>
-      </c>
-      <c r="E164" t="s">
-        <v>18</v>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>830</v>
-      </c>
-      <c r="H164" t="s">
-        <v>19</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>1.4019999999999999</v>
-      </c>
-      <c r="K164">
-        <v>11</v>
-      </c>
-      <c r="L164" t="s">
-        <v>20</v>
-      </c>
-      <c r="M164">
-        <v>46</v>
-      </c>
-      <c r="N164">
-        <v>-30.644100000000002</v>
-      </c>
-      <c r="O164">
-        <v>-178.1</v>
-      </c>
-      <c r="P164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>6.6</v>
-      </c>
-      <c r="B165" s="1">
-        <v>43615.377083333333</v>
-      </c>
-      <c r="C165">
-        <v>7</v>
-      </c>
-      <c r="D165">
-        <v>6</v>
-      </c>
-      <c r="E165" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>886</v>
-      </c>
-      <c r="H165" t="s">
-        <v>19</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="K165">
-        <v>22</v>
-      </c>
-      <c r="L165" t="s">
-        <v>20</v>
-      </c>
-      <c r="M165">
-        <v>57.92</v>
-      </c>
-      <c r="N165">
-        <v>13.199400000000001</v>
-      </c>
-      <c r="O165">
-        <v>-89.305599999999998</v>
-      </c>
-      <c r="P165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>8</v>
-      </c>
-      <c r="B166" s="1">
-        <v>43611.320138888892</v>
-      </c>
-      <c r="C166">
-        <v>9</v>
-      </c>
-      <c r="D166">
-        <v>8</v>
-      </c>
-      <c r="E166" t="s">
-        <v>51</v>
-      </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1890</v>
-      </c>
-      <c r="H166" t="s">
-        <v>19</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>3.18</v>
-      </c>
-      <c r="K166">
-        <v>17</v>
-      </c>
-      <c r="L166" t="s">
-        <v>20</v>
-      </c>
-      <c r="M166">
-        <v>122.57</v>
-      </c>
-      <c r="N166">
-        <v>-5.8118999999999996</v>
-      </c>
-      <c r="O166">
-        <v>-75.2697</v>
-      </c>
-      <c r="P166" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>26</v>
-      </c>
-      <c r="R166" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>7.6</v>
-      </c>
-      <c r="B167" s="1">
-        <v>43599.540277777778</v>
-      </c>
-      <c r="C167">
-        <v>7</v>
-      </c>
-      <c r="D167">
-        <v>7</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="G167">
-        <v>929</v>
-      </c>
-      <c r="H167" t="s">
-        <v>19</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="K167">
-        <v>16</v>
-      </c>
-      <c r="L167" t="s">
-        <v>20</v>
-      </c>
-      <c r="M167">
-        <v>10</v>
-      </c>
-      <c r="N167">
-        <v>-4.0510000000000002</v>
-      </c>
-      <c r="O167">
-        <v>152.59700000000001</v>
-      </c>
-      <c r="P167" t="s">
-        <v>181</v>
-      </c>
-      <c r="R167" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>7.1</v>
-      </c>
-      <c r="B168" s="1">
-        <v>43591.888194444444</v>
-      </c>
-      <c r="C168">
-        <v>7</v>
-      </c>
-      <c r="D168">
-        <v>6</v>
-      </c>
-      <c r="E168" t="s">
-        <v>23</v>
-      </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-      <c r="G168">
-        <v>826</v>
-      </c>
-      <c r="H168" t="s">
-        <v>19</v>
-      </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>2.5139999999999998</v>
-      </c>
-      <c r="K168">
-        <v>16</v>
-      </c>
-      <c r="L168" t="s">
-        <v>20</v>
-      </c>
-      <c r="M168">
-        <v>146</v>
-      </c>
-      <c r="N168">
-        <v>-6.9745999999999997</v>
-      </c>
-      <c r="O168">
-        <v>146.44900000000001</v>
-      </c>
-      <c r="P168" t="s">
-        <v>182</v>
-      </c>
-      <c r="R168" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>6.8</v>
-      </c>
-      <c r="B169" s="1">
-        <v>43567.486111111109</v>
-      </c>
-      <c r="C169">
-        <v>5</v>
-      </c>
-      <c r="D169">
-        <v>6</v>
-      </c>
-      <c r="E169" t="s">
-        <v>18</v>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>717</v>
-      </c>
-      <c r="H169" t="s">
-        <v>19</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="K169">
-        <v>28</v>
-      </c>
-      <c r="L169" t="s">
-        <v>20</v>
-      </c>
-      <c r="M169">
-        <v>15.46</v>
-      </c>
-      <c r="N169">
-        <v>-1.8146</v>
-      </c>
-      <c r="O169">
-        <v>122.58</v>
-      </c>
-      <c r="P169" t="s">
-        <v>183</v>
-      </c>
-      <c r="R169" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>6.5</v>
-      </c>
-      <c r="B170" s="1">
-        <v>43564.745138888888</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>5</v>
-      </c>
-      <c r="E170" t="s">
-        <v>18</v>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>650</v>
-      </c>
-      <c r="H170" t="s">
-        <v>19</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>7.5679999999999996</v>
-      </c>
-      <c r="K170">
-        <v>18</v>
-      </c>
-      <c r="L170" t="s">
-        <v>20</v>
-      </c>
-      <c r="M170">
-        <v>38</v>
-      </c>
-      <c r="N170">
-        <v>-58.626199999999997</v>
-      </c>
-      <c r="O170">
-        <v>-25.303999999999998</v>
-      </c>
-      <c r="P170" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171" s="1">
-        <v>43525.368055555555</v>
-      </c>
-      <c r="C171">
-        <v>7</v>
-      </c>
-      <c r="D171">
-        <v>4</v>
-      </c>
-      <c r="E171" t="s">
-        <v>18</v>
-      </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171">
-        <v>869</v>
-      </c>
-      <c r="H171" t="s">
-        <v>19</v>
-      </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>2.5009999999999999</v>
-      </c>
-      <c r="K171">
-        <v>42</v>
-      </c>
-      <c r="L171" t="s">
-        <v>20</v>
-      </c>
-      <c r="M171">
-        <v>267</v>
-      </c>
-      <c r="N171">
-        <v>-14.713100000000001</v>
-      </c>
-      <c r="O171">
-        <v>-70.154600000000002</v>
-      </c>
-      <c r="P171" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>26</v>
-      </c>
-      <c r="R171" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>7.5</v>
-      </c>
-      <c r="B172" s="1">
-        <v>43518.428472222222</v>
-      </c>
-      <c r="C172">
-        <v>7</v>
-      </c>
-      <c r="D172">
-        <v>7</v>
-      </c>
-      <c r="E172" t="s">
-        <v>23</v>
-      </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="G172">
-        <v>1145</v>
-      </c>
-      <c r="H172" t="s">
-        <v>19</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="K172">
-        <v>15</v>
-      </c>
-      <c r="L172" t="s">
-        <v>20</v>
-      </c>
-      <c r="M172">
-        <v>145</v>
-      </c>
-      <c r="N172">
-        <v>-2.1861999999999999</v>
-      </c>
-      <c r="O172">
-        <v>-77.0505</v>
-      </c>
-      <c r="P172" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>26</v>
-      </c>
-      <c r="R172" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>6.7</v>
-      </c>
-      <c r="B173" s="1">
-        <v>43497.676388888889</v>
-      </c>
-      <c r="C173">
-        <v>6</v>
-      </c>
-      <c r="D173">
-        <v>6</v>
-      </c>
-      <c r="E173" t="s">
-        <v>23</v>
-      </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>909</v>
-      </c>
-      <c r="H173" t="s">
-        <v>19</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="K173">
-        <v>43</v>
-      </c>
-      <c r="L173" t="s">
-        <v>20</v>
-      </c>
-      <c r="M173">
-        <v>66</v>
-      </c>
-      <c r="N173">
-        <v>14.680199999999999</v>
-      </c>
-      <c r="O173">
-        <v>-92.452699999999993</v>
-      </c>
-      <c r="P173" t="s">
-        <v>185</v>
-      </c>
-      <c r="R173" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>6.7</v>
-      </c>
-      <c r="B174" s="1">
-        <v>43487.792361111111</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>3</v>
-      </c>
-      <c r="E174" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-      <c r="G174">
-        <v>691</v>
-      </c>
-      <c r="H174" t="s">
-        <v>19</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>7.5270000000000001</v>
-      </c>
-      <c r="K174">
-        <v>17</v>
-      </c>
-      <c r="L174" t="s">
-        <v>20</v>
-      </c>
-      <c r="M174">
-        <v>13</v>
-      </c>
-      <c r="N174">
-        <v>-43.121899999999997</v>
-      </c>
-      <c r="O174">
-        <v>42.3568</v>
-      </c>
-      <c r="P174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>6.7</v>
-      </c>
-      <c r="B175" s="1">
-        <v>43485.063888888886</v>
-      </c>
-      <c r="C175">
-        <v>8</v>
-      </c>
-      <c r="D175">
-        <v>8</v>
-      </c>
-      <c r="E175" t="s">
-        <v>51</v>
-      </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>1600</v>
-      </c>
-      <c r="H175" t="s">
-        <v>19</v>
-      </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="K175">
-        <v>22</v>
-      </c>
-      <c r="L175" t="s">
-        <v>20</v>
-      </c>
-      <c r="M175">
-        <v>63</v>
-      </c>
-      <c r="N175">
-        <v>-30.040400000000002</v>
-      </c>
-      <c r="O175">
-        <v>-71.381500000000003</v>
-      </c>
-      <c r="P175" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>26</v>
-      </c>
-      <c r="R175" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>6.6</v>
-      </c>
-      <c r="B176" s="1">
-        <v>43480.754166666666</v>
-      </c>
-      <c r="C176">
-        <v>5</v>
-      </c>
-      <c r="D176">
-        <v>4</v>
-      </c>
-      <c r="E176" t="s">
-        <v>18</v>
-      </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>671</v>
-      </c>
-      <c r="H176" t="s">
-        <v>19</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>7.8179999999999996</v>
-      </c>
-      <c r="K176">
-        <v>18</v>
-      </c>
-      <c r="L176" t="s">
-        <v>20</v>
-      </c>
-      <c r="M176">
-        <v>35</v>
-      </c>
-      <c r="N176">
-        <v>-13.336</v>
-      </c>
-      <c r="O176">
-        <v>166.875</v>
-      </c>
-      <c r="P176" t="s">
-        <v>21</v>
-      </c>
-      <c r="R176" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>6.6</v>
-      </c>
-      <c r="B177" s="1">
-        <v>43471.727083333331</v>
-      </c>
-      <c r="C177">
-        <v>2</v>
-      </c>
-      <c r="D177">
-        <v>4</v>
-      </c>
-      <c r="E177" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>672</v>
-      </c>
-      <c r="H177" t="s">
-        <v>19</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="K177">
-        <v>33</v>
-      </c>
-      <c r="L177" t="s">
-        <v>20</v>
-      </c>
-      <c r="M177">
-        <v>43.21</v>
-      </c>
-      <c r="N177">
-        <v>2.258</v>
-      </c>
-      <c r="O177">
-        <v>126.758</v>
-      </c>
-      <c r="P177" t="s">
-        <v>188</v>
-      </c>
-      <c r="R177" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>6.8</v>
-      </c>
-      <c r="B178" s="1">
-        <v>43470.809027777781</v>
-      </c>
-      <c r="C178">
-        <v>3</v>
-      </c>
-      <c r="D178">
-        <v>3</v>
-      </c>
-      <c r="E178" t="s">
-        <v>18</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>715</v>
-      </c>
-      <c r="H178" t="s">
-        <v>19</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>1.181</v>
-      </c>
-      <c r="K178">
-        <v>16</v>
-      </c>
-      <c r="L178" t="s">
-        <v>20</v>
-      </c>
-      <c r="M178">
-        <v>570.41</v>
-      </c>
-      <c r="N178">
-        <v>-8.1440000000000001</v>
-      </c>
-      <c r="O178">
-        <v>-71.587000000000003</v>
-      </c>
-      <c r="P178" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>26</v>
-      </c>
-      <c r="R178" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179" s="1">
-        <v>43463.152083333334</v>
-      </c>
-      <c r="C179">
-        <v>5</v>
-      </c>
-      <c r="D179">
-        <v>5</v>
-      </c>
-      <c r="E179" t="s">
-        <v>18</v>
-      </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179">
-        <v>803</v>
-      </c>
-      <c r="H179" t="s">
-        <v>19</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-      <c r="J179">
-        <v>1.7689999999999999</v>
-      </c>
-      <c r="K179">
-        <v>21</v>
-      </c>
-      <c r="L179" t="s">
-        <v>20</v>
-      </c>
-      <c r="M179">
-        <v>60.21</v>
-      </c>
-      <c r="N179">
-        <v>5.8982999999999999</v>
-      </c>
-      <c r="O179">
-        <v>126.92100000000001</v>
-      </c>
-      <c r="P179" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>7.3</v>
-      </c>
-      <c r="B180" s="1">
-        <v>43454.709027777775</v>
-      </c>
-      <c r="C180">
-        <v>3</v>
-      </c>
-      <c r="D180">
-        <v>7</v>
-      </c>
-      <c r="E180" t="s">
-        <v>18</v>
-      </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>822</v>
-      </c>
-      <c r="H180" t="s">
-        <v>19</v>
-      </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180">
-        <v>4.1260000000000003</v>
-      </c>
-      <c r="K180">
-        <v>23</v>
-      </c>
-      <c r="L180" t="s">
-        <v>20</v>
-      </c>
-      <c r="M180">
-        <v>16.559999999999999</v>
-      </c>
-      <c r="N180">
-        <v>55.099899999999998</v>
-      </c>
-      <c r="O180">
-        <v>164.69900000000001</v>
-      </c>
-      <c r="P180" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>7.1</v>
-      </c>
-      <c r="B181" s="1">
-        <v>43445.101388888892</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-      <c r="E181" t="s">
-        <v>18</v>
-      </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
-        <v>776</v>
-      </c>
-      <c r="H181" t="s">
-        <v>19</v>
-      </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181">
-        <v>7.0430000000000001</v>
-      </c>
-      <c r="K181">
-        <v>20</v>
-      </c>
-      <c r="L181" t="s">
-        <v>20</v>
-      </c>
-      <c r="M181">
-        <v>133</v>
-      </c>
-      <c r="N181">
-        <v>-58.544600000000003</v>
-      </c>
-      <c r="O181">
-        <v>-26.3856</v>
-      </c>
-      <c r="P181" t="s">
-        <v>112</v>
-      </c>
-      <c r="R181" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>6.6</v>
-      </c>
-      <c r="B182" s="1">
-        <v>43439.279861111114</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>4</v>
-      </c>
-      <c r="E182" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>670</v>
-      </c>
-      <c r="H182" t="s">
-        <v>19</v>
-      </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
-      <c r="J182">
-        <v>2.6789999999999998</v>
-      </c>
-      <c r="K182">
-        <v>31</v>
-      </c>
-      <c r="L182" t="s">
-        <v>20</v>
-      </c>
-      <c r="M182">
-        <v>10</v>
-      </c>
-      <c r="N182">
-        <v>-22.062899999999999</v>
-      </c>
-      <c r="O182">
-        <v>169.733</v>
-      </c>
-      <c r="P182" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>7.5</v>
-      </c>
-      <c r="B183" s="1">
-        <v>43439.179166666669</v>
-      </c>
-      <c r="C183">
-        <v>3</v>
-      </c>
-      <c r="D183">
-        <v>6</v>
-      </c>
-      <c r="E183" t="s">
-        <v>18</v>
-      </c>
-      <c r="F183">
-        <v>1</v>
-      </c>
-      <c r="G183">
-        <v>871</v>
-      </c>
-      <c r="H183" t="s">
-        <v>19</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183">
-        <v>2.4049999999999998</v>
-      </c>
-      <c r="K183">
-        <v>18</v>
-      </c>
-      <c r="L183" t="s">
-        <v>20</v>
-      </c>
-      <c r="M183">
-        <v>10</v>
-      </c>
-      <c r="N183">
-        <v>-21.9496</v>
-      </c>
-      <c r="O183">
-        <v>169.42699999999999</v>
-      </c>
-      <c r="P183" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>7.1</v>
-      </c>
-      <c r="B184" s="1">
-        <v>43434.728472222225</v>
-      </c>
-      <c r="C184">
-        <v>8</v>
-      </c>
-      <c r="D184">
-        <v>8</v>
-      </c>
-      <c r="E184" t="s">
-        <v>51</v>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>1790</v>
-      </c>
-      <c r="H184" t="s">
-        <v>106</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184">
-        <v>0</v>
-      </c>
-      <c r="L184" t="s">
-        <v>175</v>
-      </c>
-      <c r="M184">
-        <v>46.7</v>
-      </c>
-      <c r="N184">
-        <v>61.346400000000003</v>
-      </c>
-      <c r="O184">
-        <v>-149.95500000000001</v>
-      </c>
-      <c r="P184" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>76</v>
-      </c>
-      <c r="R184" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>6.8</v>
-      </c>
-      <c r="B185" s="1">
-        <v>43422.850694444445</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>3</v>
-      </c>
-      <c r="E185" t="s">
-        <v>18</v>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>711</v>
-      </c>
-      <c r="H185" t="s">
-        <v>19</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>2.879</v>
-      </c>
-      <c r="K185">
-        <v>39</v>
-      </c>
-      <c r="L185" t="s">
-        <v>20</v>
-      </c>
-      <c r="M185">
-        <v>540</v>
-      </c>
-      <c r="N185">
-        <v>-17.8735</v>
-      </c>
-      <c r="O185">
-        <v>-178.92699999999999</v>
-      </c>
-      <c r="P185" t="s">
-        <v>192</v>
-      </c>
-      <c r="R185" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>6.7</v>
-      </c>
-      <c r="B186" s="1">
-        <v>43413.075694444444</v>
-      </c>
-      <c r="C186">
-        <v>3</v>
-      </c>
-      <c r="D186">
-        <v>4</v>
-      </c>
-      <c r="E186" t="s">
-        <v>18</v>
-      </c>
-      <c r="F186">
-        <v>1</v>
-      </c>
-      <c r="G186">
-        <v>693</v>
-      </c>
-      <c r="H186" t="s">
-        <v>19</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>7.8529999999999998</v>
-      </c>
-      <c r="K186">
-        <v>19</v>
-      </c>
-      <c r="L186" t="s">
-        <v>20</v>
-      </c>
-      <c r="M186">
-        <v>10</v>
-      </c>
-      <c r="N186">
-        <v>71.631200000000007</v>
-      </c>
-      <c r="O186">
-        <v>-11.2431</v>
-      </c>
-      <c r="P186" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>6.8</v>
-      </c>
-      <c r="B187" s="1">
-        <v>43398.95416666667</v>
-      </c>
-      <c r="C187">
-        <v>8</v>
-      </c>
-      <c r="D187">
-        <v>7</v>
-      </c>
-      <c r="E187" t="s">
-        <v>23</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>954</v>
-      </c>
-      <c r="H187" t="s">
-        <v>19</v>
-      </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>2.2679999999999998</v>
-      </c>
-      <c r="K187">
-        <v>15</v>
-      </c>
-      <c r="L187" t="s">
-        <v>20</v>
-      </c>
-      <c r="M187">
-        <v>14</v>
-      </c>
-      <c r="N187">
-        <v>37.520299999999999</v>
-      </c>
-      <c r="O187">
-        <v>20.5565</v>
-      </c>
-      <c r="P187" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>6.5</v>
-      </c>
-      <c r="B188" s="1">
-        <v>43395.265277777777</v>
-      </c>
-      <c r="C188">
-        <v>2</v>
-      </c>
-      <c r="D188">
-        <v>4</v>
-      </c>
-      <c r="E188" t="s">
-        <v>18</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>655</v>
-      </c>
-      <c r="H188" t="s">
-        <v>19</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188">
-        <v>1.6919999999999999</v>
-      </c>
-      <c r="K188">
-        <v>68</v>
-      </c>
-      <c r="L188" t="s">
-        <v>20</v>
-      </c>
-      <c r="M188">
-        <v>10</v>
-      </c>
-      <c r="N188">
-        <v>49.296999999999997</v>
-      </c>
-      <c r="O188">
-        <v>-129.72399999999999</v>
-      </c>
-      <c r="P188" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>6.8</v>
-      </c>
-      <c r="B189" s="1">
-        <v>43395.261111111111</v>
-      </c>
-      <c r="C189">
-        <v>4</v>
-      </c>
-      <c r="D189">
-        <v>4</v>
-      </c>
-      <c r="E189" t="s">
-        <v>18</v>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>776</v>
-      </c>
-      <c r="H189" t="s">
-        <v>19</v>
-      </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="K189">
-        <v>36</v>
-      </c>
-      <c r="L189" t="s">
-        <v>20</v>
-      </c>
-      <c r="M189">
-        <v>10</v>
-      </c>
-      <c r="N189">
-        <v>49.334600000000002</v>
-      </c>
-      <c r="O189">
-        <v>-129.28899999999999</v>
-      </c>
-      <c r="P189" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>6.5</v>
-      </c>
-      <c r="B190" s="1">
-        <v>43395.23541666667</v>
-      </c>
-      <c r="C190">
-        <v>3</v>
-      </c>
-      <c r="D190">
-        <v>4</v>
-      </c>
-      <c r="E190" t="s">
-        <v>18</v>
-      </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <v>669</v>
-      </c>
-      <c r="H190" t="s">
-        <v>19</v>
-      </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190">
-        <v>1.611</v>
-      </c>
-      <c r="K190">
-        <v>63</v>
-      </c>
-      <c r="L190" t="s">
-        <v>20</v>
-      </c>
-      <c r="M190">
-        <v>10</v>
-      </c>
-      <c r="N190">
-        <v>49.258600000000001</v>
-      </c>
-      <c r="O190">
-        <v>-129.41200000000001</v>
-      </c>
-      <c r="P190" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>6.5</v>
-      </c>
-      <c r="B191" s="1">
-        <v>43389.043749999997</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <v>4</v>
-      </c>
-      <c r="E191" t="s">
-        <v>18</v>
-      </c>
-      <c r="F191">
-        <v>1</v>
-      </c>
-      <c r="G191">
-        <v>650</v>
-      </c>
-      <c r="H191" t="s">
-        <v>19</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191">
-        <v>2.109</v>
-      </c>
-      <c r="K191">
-        <v>22</v>
-      </c>
-      <c r="L191" t="s">
-        <v>20</v>
-      </c>
-      <c r="M191">
-        <v>17</v>
-      </c>
-      <c r="N191">
-        <v>-21.742699999999999</v>
-      </c>
-      <c r="O191">
-        <v>169.52199999999999</v>
-      </c>
-      <c r="P191" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>6.7</v>
-      </c>
-      <c r="B192" s="1">
-        <v>43386.465277777781</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>3</v>
-      </c>
-      <c r="E192" t="s">
-        <v>18</v>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>691</v>
-      </c>
-      <c r="H192" t="s">
-        <v>19</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192">
-        <v>2.7050000000000001</v>
-      </c>
-      <c r="K192">
-        <v>17</v>
-      </c>
-      <c r="L192" t="s">
-        <v>20</v>
-      </c>
-      <c r="M192">
-        <v>461</v>
-      </c>
-      <c r="N192">
-        <v>52.854900000000001</v>
-      </c>
-      <c r="O192">
-        <v>153.24299999999999</v>
-      </c>
-      <c r="P192" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>6.5</v>
-      </c>
-      <c r="B193" s="1">
-        <v>43383.969444444447</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>4</v>
-      </c>
-      <c r="E193" t="s">
-        <v>18</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193">
-        <v>650</v>
-      </c>
-      <c r="H193" t="s">
-        <v>19</v>
-      </c>
-      <c r="I193">
-        <v>0</v>
-      </c>
-      <c r="J193">
-        <v>3.923</v>
-      </c>
-      <c r="K193">
-        <v>14</v>
-      </c>
-      <c r="L193" t="s">
-        <v>20</v>
-      </c>
-      <c r="M193">
-        <v>20</v>
-      </c>
-      <c r="N193">
-        <v>49.290199999999999</v>
-      </c>
-      <c r="O193">
-        <v>156.297</v>
-      </c>
-      <c r="P193" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>7</v>
-      </c>
-      <c r="B194" s="1">
-        <v>43383.866666666669</v>
-      </c>
-      <c r="C194">
-        <v>6</v>
-      </c>
-      <c r="D194">
-        <v>6</v>
-      </c>
-      <c r="E194" t="s">
-        <v>18</v>
-      </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>758</v>
-      </c>
-      <c r="H194" t="s">
-        <v>19</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-      <c r="J194">
-        <v>1.778</v>
-      </c>
-      <c r="K194">
-        <v>18</v>
-      </c>
-      <c r="L194" t="s">
-        <v>20</v>
-      </c>
-      <c r="M194">
-        <v>39</v>
-      </c>
-      <c r="N194">
-        <v>-5.7012</v>
-      </c>
-      <c r="O194">
-        <v>151.20500000000001</v>
-      </c>
-      <c r="P194" t="s">
-        <v>55</v>
-      </c>
-      <c r="R194" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>6.7</v>
-      </c>
-      <c r="B195" s="1">
-        <v>43373.452777777777</v>
-      </c>
-      <c r="C195">
-        <v>2</v>
-      </c>
-      <c r="D195">
-        <v>3</v>
-      </c>
-      <c r="E195" t="s">
-        <v>18</v>
-      </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
-        <v>691</v>
-      </c>
-      <c r="H195" t="s">
-        <v>19</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195">
-        <v>3.7450000000000001</v>
-      </c>
-      <c r="K195">
-        <v>23</v>
-      </c>
-      <c r="L195" t="s">
-        <v>20</v>
-      </c>
-      <c r="M195">
-        <v>550</v>
-      </c>
-      <c r="N195">
-        <v>-18.360399999999998</v>
-      </c>
-      <c r="O195">
-        <v>-178.06299999999999</v>
-      </c>
-      <c r="P195" t="s">
-        <v>192</v>
-      </c>
-      <c r="R195" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>7.5</v>
-      </c>
-      <c r="B196" s="1">
-        <v>43371.418055555558</v>
-      </c>
-      <c r="C196">
-        <v>8</v>
-      </c>
-      <c r="D196">
-        <v>8</v>
-      </c>
-      <c r="E196" t="s">
-        <v>61</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>2026</v>
-      </c>
-      <c r="H196" t="s">
-        <v>19</v>
-      </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>1.649</v>
-      </c>
-      <c r="K196">
-        <v>13</v>
-      </c>
-      <c r="L196" t="s">
-        <v>20</v>
-      </c>
-      <c r="M196">
-        <v>20</v>
-      </c>
-      <c r="N196">
-        <v>-0.25590000000000002</v>
-      </c>
-      <c r="O196">
-        <v>119.846</v>
-      </c>
-      <c r="P196" t="s">
-        <v>197</v>
-      </c>
-      <c r="R196" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>6.5</v>
-      </c>
-      <c r="B197" s="1">
-        <v>43359.882638888892</v>
-      </c>
-      <c r="C197">
-        <v>4</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-      <c r="E197" t="s">
-        <v>18</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>651</v>
-      </c>
-      <c r="H197" t="s">
-        <v>19</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-      <c r="J197">
-        <v>5.1390000000000002</v>
-      </c>
-      <c r="K197">
-        <v>18</v>
-      </c>
-      <c r="L197" t="s">
-        <v>20</v>
-      </c>
-      <c r="M197">
-        <v>576</v>
-      </c>
-      <c r="N197">
-        <v>-25.414999999999999</v>
-      </c>
-      <c r="O197">
-        <v>178.19900000000001</v>
-      </c>
-      <c r="P197" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>6.9</v>
-      </c>
-      <c r="B198" s="1">
-        <v>43353.179861111108</v>
-      </c>
-      <c r="C198">
-        <v>3</v>
-      </c>
-      <c r="D198">
-        <v>4</v>
-      </c>
-      <c r="E198" t="s">
-        <v>18</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="G198">
-        <v>735</v>
-      </c>
-      <c r="H198" t="s">
-        <v>19</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-      <c r="J198">
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="K198">
-        <v>18</v>
-      </c>
-      <c r="L198" t="s">
-        <v>20</v>
-      </c>
-      <c r="M198">
-        <v>115</v>
-      </c>
-      <c r="N198">
-        <v>-31.744700000000002</v>
-      </c>
-      <c r="O198">
-        <v>-179.37299999999999</v>
-      </c>
-      <c r="P198" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>6.5</v>
-      </c>
-      <c r="B199" s="1">
-        <v>43352.813194444447</v>
-      </c>
-      <c r="C199">
-        <v>3</v>
-      </c>
-      <c r="D199">
-        <v>6</v>
-      </c>
-      <c r="E199" t="s">
-        <v>18</v>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>651</v>
-      </c>
-      <c r="H199" t="s">
-        <v>19</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-      <c r="J199">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="K199">
-        <v>25</v>
-      </c>
-      <c r="L199" t="s">
-        <v>20</v>
-      </c>
-      <c r="M199">
-        <v>68</v>
-      </c>
-      <c r="N199">
-        <v>-10.0207</v>
-      </c>
-      <c r="O199">
-        <v>161.50299999999999</v>
-      </c>
-      <c r="P199" t="s">
-        <v>198</v>
-      </c>
-      <c r="R199" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>7.9</v>
-      </c>
-      <c r="B200" s="1">
-        <v>43349.65902777778</v>
-      </c>
-      <c r="C200">
-        <v>7</v>
-      </c>
-      <c r="D200">
-        <v>4</v>
-      </c>
-      <c r="E200" t="s">
-        <v>18</v>
-      </c>
-      <c r="F200">
-        <v>1</v>
-      </c>
-      <c r="G200">
-        <v>979</v>
-      </c>
-      <c r="H200" t="s">
-        <v>19</v>
-      </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
-      <c r="J200">
-        <v>1.431</v>
-      </c>
-      <c r="K200">
-        <v>12</v>
-      </c>
-      <c r="L200" t="s">
-        <v>20</v>
-      </c>
-      <c r="M200">
-        <v>670.81</v>
-      </c>
-      <c r="N200">
-        <v>-18.474299999999999</v>
-      </c>
-      <c r="O200">
-        <v>179.35</v>
-      </c>
-      <c r="P200" t="s">
-        <v>192</v>
-      </c>
-      <c r="R200" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>6.6</v>
-      </c>
-      <c r="B201" s="1">
-        <v>43348.754861111112</v>
-      </c>
-      <c r="C201">
-        <v>8</v>
-      </c>
-      <c r="D201">
-        <v>9</v>
-      </c>
-      <c r="E201" t="s">
-        <v>51</v>
-      </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>1075</v>
-      </c>
-      <c r="H201" t="s">
-        <v>19</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="K201">
-        <v>32</v>
-      </c>
-      <c r="L201" t="s">
-        <v>20</v>
-      </c>
-      <c r="M201">
-        <v>35</v>
-      </c>
-      <c r="N201">
-        <v>42.686100000000003</v>
-      </c>
-      <c r="O201">
-        <v>141.929</v>
-      </c>
-      <c r="P201" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q201" t="s">
-        <v>44</v>
-      </c>
-      <c r="R201" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>7.1</v>
-      </c>
-      <c r="B202" s="1">
-        <v>43341.160416666666</v>
-      </c>
-      <c r="C202">
-        <v>2</v>
-      </c>
-      <c r="D202">
-        <v>5</v>
-      </c>
-      <c r="E202" t="s">
-        <v>18</v>
-      </c>
-      <c r="F202">
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <v>776</v>
-      </c>
-      <c r="H202" t="s">
-        <v>19</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202">
-        <v>2.548</v>
-      </c>
-      <c r="K202">
-        <v>23</v>
-      </c>
-      <c r="L202" t="s">
-        <v>20</v>
-      </c>
-      <c r="M202">
-        <v>21.43</v>
-      </c>
-      <c r="N202">
-        <v>-22.029499999999999</v>
-      </c>
-      <c r="O202">
-        <v>170.126</v>
-      </c>
-      <c r="P202" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>7.1</v>
-      </c>
-      <c r="B203" s="1">
-        <v>43336.37777777778</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
-        <v>3</v>
-      </c>
-      <c r="E203" t="s">
-        <v>18</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-      <c r="G203">
-        <v>776</v>
-      </c>
-      <c r="H203" t="s">
-        <v>19</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-      <c r="J203">
-        <v>3.77</v>
-      </c>
-      <c r="K203">
-        <v>12</v>
-      </c>
-      <c r="L203" t="s">
-        <v>20</v>
-      </c>
-      <c r="M203">
-        <v>630</v>
-      </c>
-      <c r="N203">
-        <v>-11.035500000000001</v>
-      </c>
-      <c r="O203">
-        <v>-70.828400000000002</v>
-      </c>
-      <c r="P203" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>26</v>
-      </c>
-      <c r="R203" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>6.5</v>
-      </c>
-      <c r="B204" s="1">
-        <v>43333.938888888886</v>
-      </c>
-      <c r="C204">
-        <v>6</v>
-      </c>
-      <c r="D204">
-        <v>7</v>
-      </c>
-      <c r="E204" t="s">
-        <v>18</v>
-      </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>652</v>
-      </c>
-      <c r="H204" t="s">
-        <v>19</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204">
-        <v>4.7969999999999997</v>
-      </c>
-      <c r="K204">
-        <v>10</v>
-      </c>
-      <c r="L204" t="s">
-        <v>20</v>
-      </c>
-      <c r="M204">
-        <v>9</v>
-      </c>
-      <c r="N204">
-        <v>-16.031500000000001</v>
-      </c>
-      <c r="O204">
-        <v>168.143</v>
-      </c>
-      <c r="P204" t="s">
-        <v>170</v>
-      </c>
-      <c r="R204" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>7.3</v>
-      </c>
-      <c r="B205" s="1">
-        <v>43333.896527777775</v>
-      </c>
-      <c r="C205">
-        <v>8</v>
-      </c>
-      <c r="D205">
-        <v>6</v>
-      </c>
-      <c r="E205" t="s">
-        <v>23</v>
-      </c>
-      <c r="F205">
-        <v>1</v>
-      </c>
-      <c r="G205">
-        <v>1570</v>
-      </c>
-      <c r="H205" t="s">
-        <v>19</v>
-      </c>
-      <c r="I205">
-        <v>0</v>
-      </c>
-      <c r="J205">
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="K205">
-        <v>15</v>
-      </c>
-      <c r="L205" t="s">
-        <v>20</v>
-      </c>
-      <c r="M205">
-        <v>146.82</v>
-      </c>
-      <c r="N205">
-        <v>10.773099999999999</v>
-      </c>
-      <c r="O205">
-        <v>-62.901899999999998</v>
-      </c>
-      <c r="P205" t="s">
-        <v>201</v>
-      </c>
-      <c r="R205" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>6.9</v>
-      </c>
-      <c r="B206" s="1">
-        <v>43331.62222222222</v>
-      </c>
-      <c r="C206">
-        <v>7</v>
-      </c>
-      <c r="D206">
-        <v>7</v>
-      </c>
-      <c r="E206" t="s">
-        <v>18</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <v>1206</v>
-      </c>
-      <c r="H206" t="s">
-        <v>19</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="K206">
-        <v>31</v>
-      </c>
-      <c r="L206" t="s">
-        <v>20</v>
-      </c>
-      <c r="M206">
-        <v>21</v>
-      </c>
-      <c r="N206">
-        <v>-8.3190000000000008</v>
-      </c>
-      <c r="O206">
-        <v>116.627</v>
-      </c>
-      <c r="P206" t="s">
-        <v>203</v>
-      </c>
-      <c r="R206" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B207" s="1">
-        <v>43331.013194444444</v>
-      </c>
-      <c r="C207">
-        <v>5</v>
-      </c>
-      <c r="D207">
-        <v>4</v>
-      </c>
-      <c r="E207" t="s">
-        <v>18</v>
-      </c>
-      <c r="F207">
-        <v>1</v>
-      </c>
-      <c r="G207">
-        <v>1050</v>
-      </c>
-      <c r="H207" t="s">
-        <v>19</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207">
-        <v>3.63</v>
-      </c>
-      <c r="K207">
-        <v>13</v>
-      </c>
-      <c r="L207" t="s">
-        <v>20</v>
-      </c>
-      <c r="M207">
-        <v>600</v>
-      </c>
-      <c r="N207">
-        <v>-18.112500000000001</v>
-      </c>
-      <c r="O207">
-        <v>-178.15299999999999</v>
-      </c>
-      <c r="P207" t="s">
-        <v>192</v>
-      </c>
-      <c r="R207" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>6.5</v>
-      </c>
-      <c r="B208" s="1">
-        <v>43329.649305555555</v>
-      </c>
-      <c r="C208">
-        <v>5</v>
-      </c>
-      <c r="D208">
-        <v>3</v>
-      </c>
-      <c r="E208" t="s">
-        <v>18</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <v>743</v>
-      </c>
-      <c r="H208" t="s">
-        <v>19</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-      <c r="J208">
-        <v>2.7189999999999999</v>
-      </c>
-      <c r="K208">
-        <v>23</v>
-      </c>
-      <c r="L208" t="s">
-        <v>20</v>
-      </c>
-      <c r="M208">
-        <v>529</v>
-      </c>
-      <c r="N208">
-        <v>-7.3718000000000004</v>
-      </c>
-      <c r="O208">
-        <v>119.80200000000001</v>
-      </c>
-      <c r="P208" t="s">
-        <v>204</v>
-      </c>
-      <c r="R208" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>6.5</v>
-      </c>
-      <c r="B209" s="1">
-        <v>43327.913888888892</v>
-      </c>
-      <c r="C209">
-        <v>6</v>
-      </c>
-      <c r="D209">
-        <v>6</v>
-      </c>
-      <c r="E209" t="s">
-        <v>18</v>
-      </c>
-      <c r="F209">
-        <v>1</v>
-      </c>
-      <c r="G209">
-        <v>655</v>
-      </c>
-      <c r="H209" t="s">
-        <v>19</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
-      <c r="J209">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="K209">
-        <v>22</v>
-      </c>
-      <c r="L209" t="s">
-        <v>20</v>
-      </c>
-      <c r="M209">
-        <v>33.93</v>
-      </c>
-      <c r="N209">
-        <v>51.423400000000001</v>
-      </c>
-      <c r="O209">
-        <v>-178.02600000000001</v>
-      </c>
-      <c r="P209" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>76</v>
-      </c>
-      <c r="R209" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>6.9</v>
-      </c>
-      <c r="B210" s="1">
-        <v>43317.490277777775</v>
-      </c>
-      <c r="C210">
-        <v>9</v>
-      </c>
-      <c r="D210">
-        <v>8</v>
-      </c>
-      <c r="E210" t="s">
-        <v>51</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <v>1704</v>
-      </c>
-      <c r="H210" t="s">
-        <v>19</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
-      <c r="J210">
-        <v>2.2709999999999999</v>
-      </c>
-      <c r="K210">
-        <v>15</v>
-      </c>
-      <c r="L210" t="s">
-        <v>20</v>
-      </c>
-      <c r="M210">
-        <v>34</v>
-      </c>
-      <c r="N210">
-        <v>-8.2581000000000007</v>
-      </c>
-      <c r="O210">
-        <v>116.438</v>
-      </c>
-      <c r="P210" t="s">
-        <v>203</v>
-      </c>
-      <c r="R210" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>6.9</v>
-      </c>
-      <c r="B211" s="1">
-        <v>43224.938888888886</v>
-      </c>
-      <c r="C211">
-        <v>7</v>
-      </c>
-      <c r="D211">
-        <v>8</v>
-      </c>
-      <c r="E211" t="s">
-        <v>23</v>
-      </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
-      <c r="G211">
-        <v>1392</v>
-      </c>
-      <c r="H211" t="s">
-        <v>206</v>
-      </c>
-      <c r="I211">
-        <v>63</v>
-      </c>
-      <c r="J211">
-        <v>0.11</v>
-      </c>
-      <c r="K211">
-        <v>210</v>
-      </c>
-      <c r="L211" t="s">
-        <v>175</v>
-      </c>
-      <c r="M211">
-        <v>5.81</v>
-      </c>
-      <c r="N211">
-        <v>19.318200000000001</v>
-      </c>
-      <c r="O211">
-        <v>-155</v>
-      </c>
-      <c r="P211" t="s">
-        <v>207</v>
-      </c>
-      <c r="R211" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>6.8</v>
-      </c>
-      <c r="B212" s="1">
-        <v>43192.569444444445</v>
-      </c>
-      <c r="C212">
-        <v>5</v>
-      </c>
-      <c r="D212">
-        <v>3</v>
-      </c>
-      <c r="E212" t="s">
-        <v>18</v>
-      </c>
-      <c r="F212">
-        <v>0</v>
-      </c>
-      <c r="G212">
-        <v>733</v>
-      </c>
-      <c r="H212" t="s">
-        <v>19</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212">
-        <v>5.32</v>
-      </c>
-      <c r="K212">
-        <v>16</v>
-      </c>
-      <c r="L212" t="s">
-        <v>20</v>
-      </c>
-      <c r="M212">
-        <v>559</v>
-      </c>
-      <c r="N212">
-        <v>-20.658799999999999</v>
-      </c>
-      <c r="O212">
-        <v>-63.005800000000001</v>
-      </c>
-      <c r="P212" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>26</v>
-      </c>
-      <c r="R212" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>6.9</v>
-      </c>
-      <c r="B213" s="1">
-        <v>43188.892361111109</v>
-      </c>
-      <c r="C213">
-        <v>9</v>
-      </c>
-      <c r="D213">
-        <v>6</v>
-      </c>
-      <c r="E213" t="s">
-        <v>18</v>
-      </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="G213">
-        <v>741</v>
-      </c>
-      <c r="H213" t="s">
-        <v>19</v>
-      </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213">
-        <v>1.4870000000000001</v>
-      </c>
-      <c r="K213">
-        <v>18</v>
-      </c>
-      <c r="L213" t="s">
-        <v>20</v>
-      </c>
-      <c r="M213">
-        <v>35</v>
-      </c>
-      <c r="N213">
-        <v>-5.5320999999999998</v>
-      </c>
-      <c r="O213">
-        <v>151.5</v>
-      </c>
-      <c r="P213" t="s">
-        <v>55</v>
-      </c>
-      <c r="R213" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>6.7</v>
-      </c>
-      <c r="B214" s="1">
-        <v>43185.410416666666</v>
-      </c>
-      <c r="C214">
-        <v>5</v>
-      </c>
-      <c r="D214">
-        <v>6</v>
-      </c>
-      <c r="E214" t="s">
-        <v>18</v>
-      </c>
-      <c r="F214">
-        <v>1</v>
-      </c>
-      <c r="G214">
-        <v>696</v>
-      </c>
-      <c r="H214" t="s">
-        <v>19</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="J214">
-        <v>1.5069999999999999</v>
-      </c>
-      <c r="K214">
-        <v>15</v>
-      </c>
-      <c r="L214" t="s">
-        <v>20</v>
-      </c>
-      <c r="M214">
-        <v>40</v>
-      </c>
-      <c r="N214">
-        <v>-5.5023999999999997</v>
-      </c>
-      <c r="O214">
-        <v>151.40199999999999</v>
-      </c>
-      <c r="P214" t="s">
-        <v>55</v>
-      </c>
-      <c r="R214" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>6.8</v>
-      </c>
-      <c r="B215" s="1">
-        <v>43167.73541666667</v>
-      </c>
-      <c r="C215">
-        <v>6</v>
-      </c>
-      <c r="D215">
-        <v>6</v>
-      </c>
-      <c r="E215" t="s">
-        <v>18</v>
-      </c>
-      <c r="F215">
-        <v>1</v>
-      </c>
-      <c r="G215">
-        <v>719</v>
-      </c>
-      <c r="H215" t="s">
-        <v>19</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-      <c r="J215">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="K215">
-        <v>16</v>
-      </c>
-      <c r="L215" t="s">
-        <v>20</v>
-      </c>
-      <c r="M215">
-        <v>22.86</v>
-      </c>
-      <c r="N215">
-        <v>-4.3761999999999999</v>
-      </c>
-      <c r="O215">
-        <v>153.19999999999999</v>
-      </c>
-      <c r="P215" t="s">
-        <v>210</v>
-      </c>
-      <c r="R215" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>6.7</v>
-      </c>
-      <c r="B216" s="1">
-        <v>43165.592361111114</v>
-      </c>
-      <c r="C216">
-        <v>8</v>
-      </c>
-      <c r="D216">
-        <v>7</v>
-      </c>
-      <c r="E216" t="s">
-        <v>18</v>
-      </c>
-      <c r="F216">
-        <v>1</v>
-      </c>
-      <c r="G216">
-        <v>697</v>
-      </c>
-      <c r="H216" t="s">
-        <v>19</v>
-      </c>
-      <c r="I216">
-        <v>0</v>
-      </c>
-      <c r="J216">
-        <v>5.4569999999999999</v>
-      </c>
-      <c r="K216">
-        <v>19</v>
-      </c>
-      <c r="L216" t="s">
-        <v>20</v>
-      </c>
-      <c r="M216">
-        <v>20.49</v>
-      </c>
-      <c r="N216">
-        <v>-6.3042999999999996</v>
-      </c>
-      <c r="O216">
-        <v>142.61199999999999</v>
-      </c>
-      <c r="P216" t="s">
-        <v>211</v>
-      </c>
-      <c r="R216" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>7.5</v>
-      </c>
-      <c r="B217" s="1">
-        <v>43156.738888888889</v>
-      </c>
-      <c r="C217">
-        <v>9</v>
-      </c>
-      <c r="D217">
-        <v>8</v>
-      </c>
-      <c r="E217" t="s">
-        <v>23</v>
-      </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-      <c r="G217">
-        <v>943</v>
-      </c>
-      <c r="H217" t="s">
-        <v>19</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-      <c r="J217">
-        <v>5.48</v>
-      </c>
-      <c r="K217">
-        <v>17</v>
-      </c>
-      <c r="L217" t="s">
-        <v>20</v>
-      </c>
-      <c r="M217">
-        <v>25.21</v>
-      </c>
-      <c r="N217">
-        <v>-6.0698999999999996</v>
-      </c>
-      <c r="O217">
-        <v>142.75399999999999</v>
-      </c>
-      <c r="P217" t="s">
-        <v>211</v>
-      </c>
-      <c r="R217" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>7.2</v>
-      </c>
-      <c r="B218" s="1">
-        <v>43147.98541666667</v>
-      </c>
-      <c r="C218">
-        <v>7</v>
-      </c>
-      <c r="D218">
-        <v>7</v>
-      </c>
-      <c r="E218" t="s">
-        <v>23</v>
-      </c>
-      <c r="F218">
-        <v>1</v>
-      </c>
-      <c r="G218">
-        <v>1384</v>
-      </c>
-      <c r="H218" t="s">
-        <v>19</v>
-      </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="K218">
-        <v>82</v>
-      </c>
-      <c r="L218" t="s">
-        <v>20</v>
-      </c>
-      <c r="M218">
-        <v>22</v>
-      </c>
-      <c r="N218">
-        <v>16.3855</v>
-      </c>
-      <c r="O218">
-        <v>-97.978700000000003</v>
-      </c>
-      <c r="P218" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>76</v>
-      </c>
-      <c r="R218" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>7.9</v>
-      </c>
-      <c r="B219" s="1">
-        <v>43123.396527777775</v>
-      </c>
-      <c r="C219">
-        <v>9</v>
-      </c>
-      <c r="D219">
-        <v>4</v>
-      </c>
-      <c r="E219" t="s">
-        <v>18</v>
-      </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-      <c r="G219">
-        <v>1870</v>
-      </c>
-      <c r="H219" t="s">
-        <v>19</v>
-      </c>
-      <c r="I219">
-        <v>0</v>
-      </c>
-      <c r="J219">
-        <v>2.585</v>
-      </c>
-      <c r="K219">
-        <v>30</v>
-      </c>
-      <c r="L219" t="s">
-        <v>20</v>
-      </c>
-      <c r="M219">
-        <v>14.06</v>
-      </c>
-      <c r="N219">
-        <v>56.003900000000002</v>
-      </c>
-      <c r="O219">
-        <v>-149.166</v>
-      </c>
-      <c r="P219" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>7.1</v>
-      </c>
-      <c r="B220" s="1">
-        <v>43114.387499999997</v>
-      </c>
-      <c r="C220">
-        <v>9</v>
-      </c>
-      <c r="D220">
-        <v>7</v>
-      </c>
-      <c r="E220" t="s">
-        <v>18</v>
-      </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>1075</v>
-      </c>
-      <c r="H220" t="s">
-        <v>19</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220">
-        <v>4.29</v>
-      </c>
-      <c r="K220">
-        <v>23</v>
-      </c>
-      <c r="L220" t="s">
-        <v>20</v>
-      </c>
-      <c r="M220">
-        <v>39</v>
-      </c>
-      <c r="N220">
-        <v>-15.7675</v>
-      </c>
-      <c r="O220">
-        <v>-74.709199999999996</v>
-      </c>
-      <c r="P220" t="s">
-        <v>214</v>
-      </c>
-      <c r="R220" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>7.5</v>
-      </c>
-      <c r="B221" s="1">
-        <v>43110.118750000001</v>
-      </c>
-      <c r="C221">
-        <v>8</v>
-      </c>
-      <c r="D221">
-        <v>5</v>
-      </c>
-      <c r="E221" t="s">
-        <v>18</v>
-      </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>1623</v>
-      </c>
-      <c r="H221" t="s">
-        <v>19</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>4.5810000000000004</v>
-      </c>
-      <c r="K221">
-        <v>12</v>
-      </c>
-      <c r="L221" t="s">
-        <v>20</v>
-      </c>
-      <c r="M221">
-        <v>19</v>
-      </c>
-      <c r="N221">
-        <v>17.482500000000002</v>
-      </c>
-      <c r="O221">
-        <v>-83.52</v>
-      </c>
-      <c r="P221" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>6.5</v>
-      </c>
-      <c r="B222" s="1">
-        <v>43084.699305555558</v>
-      </c>
-      <c r="C222">
-        <v>8</v>
-      </c>
-      <c r="D222">
-        <v>7</v>
-      </c>
-      <c r="E222" t="s">
-        <v>18</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222">
-        <v>998</v>
-      </c>
-      <c r="H222" t="s">
-        <v>19</v>
-      </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
-      <c r="J222">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="K222">
-        <v>28</v>
-      </c>
-      <c r="L222" t="s">
-        <v>20</v>
-      </c>
-      <c r="M222">
-        <v>90</v>
-      </c>
-      <c r="N222">
-        <v>-7.4920999999999998</v>
-      </c>
-      <c r="O222">
-        <v>108.17400000000001</v>
-      </c>
-      <c r="P222" t="s">
-        <v>216</v>
-      </c>
-      <c r="R222" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>6.5</v>
-      </c>
-      <c r="B223" s="1">
-        <v>43082.752083333333</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-      <c r="D223">
-        <v>5</v>
-      </c>
-      <c r="E223" t="s">
-        <v>18</v>
-      </c>
-      <c r="F223">
-        <v>1</v>
-      </c>
-      <c r="G223">
-        <v>651</v>
-      </c>
-      <c r="H223" t="s">
-        <v>19</v>
-      </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223">
-        <v>17.654</v>
-      </c>
-      <c r="K223">
-        <v>23</v>
-      </c>
-      <c r="L223" t="s">
-        <v>20</v>
-      </c>
-      <c r="M223">
-        <v>17</v>
-      </c>
-      <c r="N223">
-        <v>-54.218899999999998</v>
-      </c>
-      <c r="O223">
-        <v>2.1627999999999998</v>
-      </c>
-      <c r="P223" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>7</v>
-      </c>
-      <c r="B224" s="1">
-        <v>43058.946527777778</v>
-      </c>
-      <c r="C224">
-        <v>4</v>
-      </c>
-      <c r="D224">
-        <v>6</v>
-      </c>
-      <c r="E224" t="s">
-        <v>18</v>
-      </c>
-      <c r="F224">
-        <v>1</v>
-      </c>
-      <c r="G224">
-        <v>771</v>
-      </c>
-      <c r="H224" t="s">
-        <v>19</v>
-      </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-      <c r="J224">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="K224">
-        <v>14</v>
-      </c>
-      <c r="L224" t="s">
-        <v>20</v>
-      </c>
-      <c r="M224">
-        <v>10</v>
-      </c>
-      <c r="N224">
-        <v>-21.3246</v>
-      </c>
-      <c r="O224">
-        <v>168.67099999999999</v>
-      </c>
-      <c r="P224" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>6.6</v>
-      </c>
-      <c r="B225" s="1">
-        <v>43058.631249999999</v>
-      </c>
-      <c r="C225">
-        <v>4</v>
-      </c>
-      <c r="D225">
-        <v>5</v>
-      </c>
-      <c r="E225" t="s">
-        <v>18</v>
-      </c>
-      <c r="F225">
-        <v>1</v>
-      </c>
-      <c r="G225">
-        <v>676</v>
-      </c>
-      <c r="H225" t="s">
-        <v>19</v>
-      </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
-      <c r="J225">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="K225">
-        <v>21</v>
-      </c>
-      <c r="L225" t="s">
-        <v>20</v>
-      </c>
-      <c r="M225">
-        <v>13</v>
-      </c>
-      <c r="N225">
-        <v>-21.502700000000001</v>
-      </c>
-      <c r="O225">
-        <v>168.59800000000001</v>
-      </c>
-      <c r="P225" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>6.5</v>
-      </c>
-      <c r="B226" s="1">
-        <v>43052.102777777778</v>
-      </c>
-      <c r="C226">
-        <v>8</v>
-      </c>
-      <c r="D226">
-        <v>8</v>
-      </c>
-      <c r="E226" t="s">
-        <v>23</v>
-      </c>
-      <c r="F226">
-        <v>1</v>
-      </c>
-      <c r="G226">
-        <v>1153</v>
-      </c>
-      <c r="H226" t="s">
-        <v>19</v>
-      </c>
-      <c r="I226">
-        <v>0</v>
-      </c>
-      <c r="J226">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="K226">
-        <v>37</v>
-      </c>
-      <c r="L226" t="s">
-        <v>20</v>
-      </c>
-      <c r="M226">
-        <v>19.36</v>
-      </c>
-      <c r="N226">
-        <v>9.5146999999999995</v>
-      </c>
-      <c r="O226">
-        <v>-84.486500000000007</v>
-      </c>
-      <c r="P226" t="s">
-        <v>218</v>
-      </c>
-      <c r="R226" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>7.3</v>
-      </c>
-      <c r="B227" s="1">
-        <v>43051.762499999997</v>
-      </c>
-      <c r="C227">
-        <v>8</v>
-      </c>
-      <c r="D227">
-        <v>9</v>
-      </c>
-      <c r="E227" t="s">
-        <v>61</v>
-      </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227">
-        <v>2790</v>
-      </c>
-      <c r="H227" t="s">
-        <v>19</v>
-      </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="K227">
-        <v>33</v>
-      </c>
-      <c r="L227" t="s">
-        <v>20</v>
-      </c>
-      <c r="M227">
-        <v>19</v>
-      </c>
-      <c r="N227">
-        <v>34.910899999999998</v>
-      </c>
-      <c r="O227">
-        <v>45.959200000000003</v>
-      </c>
-      <c r="P227" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>44</v>
-      </c>
-      <c r="R227" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>6.5</v>
-      </c>
-      <c r="B228" s="1">
-        <v>43046.893055555556</v>
-      </c>
-      <c r="C228">
-        <v>6</v>
-      </c>
-      <c r="D228">
-        <v>5</v>
-      </c>
-      <c r="E228" t="s">
-        <v>18</v>
-      </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="G228">
-        <v>661</v>
-      </c>
-      <c r="H228" t="s">
-        <v>19</v>
-      </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="J228">
-        <v>4.4489999999999998</v>
-      </c>
-      <c r="K228">
-        <v>10</v>
-      </c>
-      <c r="L228" t="s">
-        <v>20</v>
-      </c>
-      <c r="M228">
-        <v>110.57</v>
-      </c>
-      <c r="N228">
-        <v>-4.2432999999999996</v>
-      </c>
-      <c r="O228">
-        <v>143.48500000000001</v>
-      </c>
-      <c r="P228" t="s">
-        <v>222</v>
-      </c>
-      <c r="R228" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>6.8</v>
-      </c>
-      <c r="B229" s="1">
-        <v>43043.375</v>
-      </c>
-      <c r="C229">
-        <v>5</v>
-      </c>
-      <c r="D229">
-        <v>5</v>
-      </c>
-      <c r="E229" t="s">
-        <v>18</v>
-      </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="G229">
-        <v>727</v>
-      </c>
-      <c r="H229" t="s">
-        <v>19</v>
-      </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-      <c r="J229">
-        <v>4.8520000000000003</v>
-      </c>
-      <c r="K229">
-        <v>21</v>
-      </c>
-      <c r="L229" t="s">
-        <v>20</v>
-      </c>
-      <c r="M229">
-        <v>10</v>
-      </c>
-      <c r="N229">
-        <v>-15.319699999999999</v>
-      </c>
-      <c r="O229">
-        <v>-173.16800000000001</v>
-      </c>
-      <c r="P229" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>6.6</v>
-      </c>
-      <c r="B230" s="1">
-        <v>43040.099305555559</v>
-      </c>
-      <c r="C230">
-        <v>3</v>
-      </c>
-      <c r="D230">
-        <v>5</v>
-      </c>
-      <c r="E230" t="s">
-        <v>18</v>
-      </c>
-      <c r="F230">
-        <v>1</v>
-      </c>
-      <c r="G230">
-        <v>674</v>
-      </c>
-      <c r="H230" t="s">
-        <v>19</v>
-      </c>
-      <c r="I230">
-        <v>0</v>
-      </c>
-      <c r="J230">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="K230">
-        <v>29</v>
-      </c>
-      <c r="L230" t="s">
-        <v>20</v>
-      </c>
-      <c r="M230">
-        <v>22</v>
-      </c>
-      <c r="N230">
-        <v>-21.648399999999999</v>
-      </c>
-      <c r="O230">
-        <v>168.85900000000001</v>
-      </c>
-      <c r="P230" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>6.7</v>
-      </c>
-      <c r="B231" s="1">
-        <v>43039.029166666667</v>
-      </c>
-      <c r="C231">
-        <v>3</v>
-      </c>
-      <c r="D231">
-        <v>4</v>
-      </c>
-      <c r="E231" t="s">
-        <v>18</v>
-      </c>
-      <c r="F231">
-        <v>1</v>
-      </c>
-      <c r="G231">
-        <v>691</v>
-      </c>
-      <c r="H231" t="s">
-        <v>19</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
-      <c r="J231">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="K231">
-        <v>55</v>
-      </c>
-      <c r="L231" t="s">
-        <v>20</v>
-      </c>
-      <c r="M231">
-        <v>24</v>
-      </c>
-      <c r="N231">
-        <v>-21.697099999999999</v>
-      </c>
-      <c r="O231">
-        <v>169.148</v>
-      </c>
-      <c r="P231" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>6.7</v>
-      </c>
-      <c r="B232" s="1">
-        <v>43032.449305555558</v>
-      </c>
-      <c r="C232">
-        <v>3</v>
-      </c>
-      <c r="D232">
-        <v>3</v>
-      </c>
-      <c r="E232" t="s">
-        <v>18</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232">
-        <v>694</v>
-      </c>
-      <c r="H232" t="s">
-        <v>19</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232">
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="K232">
-        <v>16</v>
-      </c>
-      <c r="L232" t="s">
-        <v>20</v>
-      </c>
-      <c r="M232">
-        <v>553.80999999999995</v>
-      </c>
-      <c r="N232">
-        <v>-7.2168000000000001</v>
-      </c>
-      <c r="O232">
-        <v>123.074</v>
-      </c>
-      <c r="P232" t="s">
-        <v>223</v>
-      </c>
-      <c r="R232" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>6.5</v>
-      </c>
-      <c r="B233" s="1">
-        <v>43016.94027777778</v>
-      </c>
-      <c r="C233">
-        <v>3</v>
-      </c>
-      <c r="D233">
-        <v>5</v>
-      </c>
-      <c r="E233" t="s">
-        <v>18</v>
-      </c>
-      <c r="F233">
-        <v>1</v>
-      </c>
-      <c r="G233">
-        <v>651</v>
-      </c>
-      <c r="H233" t="s">
-        <v>19</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
-      </c>
-      <c r="J233">
-        <v>1.1539999999999999</v>
-      </c>
-      <c r="K233">
-        <v>11</v>
-      </c>
-      <c r="L233" t="s">
-        <v>20</v>
-      </c>
-      <c r="M233">
-        <v>119</v>
-      </c>
-      <c r="N233">
-        <v>52.390900000000002</v>
-      </c>
-      <c r="O233">
-        <v>176.76900000000001</v>
-      </c>
-      <c r="P233" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q233" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>7.1</v>
-      </c>
-      <c r="B234" s="1">
-        <v>42997.759722222225</v>
-      </c>
-      <c r="C234">
-        <v>9</v>
-      </c>
-      <c r="D234">
-        <v>8</v>
-      </c>
-      <c r="F234">
-        <v>0</v>
-      </c>
-      <c r="G234">
-        <v>1686</v>
-      </c>
-      <c r="H234" t="s">
-        <v>19</v>
-      </c>
-      <c r="I234">
-        <v>0</v>
-      </c>
-      <c r="J234">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="K234">
-        <v>23</v>
-      </c>
-      <c r="L234" t="s">
-        <v>20</v>
-      </c>
-      <c r="M234">
-        <v>48</v>
-      </c>
-      <c r="N234">
-        <v>18.549900000000001</v>
-      </c>
-      <c r="O234">
-        <v>-98.488699999999994</v>
-      </c>
-      <c r="P234" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>76</v>
-      </c>
-      <c r="R234" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B235" s="1">
-        <v>42986.200694444444</v>
-      </c>
-      <c r="C235">
-        <v>9</v>
-      </c>
-      <c r="D235">
-        <v>7</v>
-      </c>
-      <c r="E235" t="s">
-        <v>61</v>
-      </c>
-      <c r="F235">
-        <v>1</v>
-      </c>
-      <c r="G235">
-        <v>2910</v>
-      </c>
-      <c r="H235" t="s">
-        <v>19</v>
-      </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-      <c r="J235">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="K235">
-        <v>22</v>
-      </c>
-      <c r="L235" t="s">
-        <v>20</v>
-      </c>
-      <c r="M235">
-        <v>47.39</v>
-      </c>
-      <c r="N235">
-        <v>15.0222</v>
-      </c>
-      <c r="O235">
-        <v>-93.899299999999997</v>
-      </c>
-      <c r="P235" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <v>6.5</v>
-      </c>
-      <c r="B236" s="1">
-        <v>42955.554861111108</v>
-      </c>
-      <c r="C236">
-        <v>5</v>
-      </c>
-      <c r="D236">
-        <v>7</v>
-      </c>
-      <c r="E236" t="s">
-        <v>23</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
-      </c>
-      <c r="G236">
-        <v>707</v>
-      </c>
-      <c r="H236" t="s">
-        <v>19</v>
-      </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236">
-        <v>11.411</v>
-      </c>
-      <c r="K236">
-        <v>22</v>
-      </c>
-      <c r="L236" t="s">
-        <v>20</v>
-      </c>
-      <c r="M236">
-        <v>9</v>
-      </c>
-      <c r="N236">
-        <v>33.192599999999999</v>
-      </c>
-      <c r="O236">
-        <v>103.855</v>
-      </c>
-      <c r="P236" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>44</v>
-      </c>
-      <c r="R236" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>6.6</v>
-      </c>
-      <c r="B237" s="1">
-        <v>42936.938194444447</v>
-      </c>
-      <c r="C237">
-        <v>7</v>
-      </c>
-      <c r="D237">
-        <v>7</v>
-      </c>
-      <c r="E237" t="s">
-        <v>23</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237">
-        <v>1064</v>
-      </c>
-      <c r="H237" t="s">
-        <v>19</v>
-      </c>
-      <c r="I237">
-        <v>0</v>
-      </c>
-      <c r="J237">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="K237">
-        <v>16</v>
-      </c>
-      <c r="L237" t="s">
-        <v>20</v>
-      </c>
-      <c r="M237">
-        <v>7</v>
-      </c>
-      <c r="N237">
-        <v>36.929299999999998</v>
-      </c>
-      <c r="O237">
-        <v>27.413900000000002</v>
-      </c>
-      <c r="P237" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>44</v>
-      </c>
-      <c r="R237" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>7.7</v>
-      </c>
-      <c r="B238" s="1">
-        <v>42933.981944444444</v>
-      </c>
-      <c r="C238">
-        <v>8</v>
-      </c>
-      <c r="D238">
-        <v>7</v>
-      </c>
-      <c r="E238" t="s">
-        <v>18</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>918</v>
-      </c>
-      <c r="H238" t="s">
-        <v>19</v>
-      </c>
-      <c r="I238">
-        <v>0</v>
-      </c>
-      <c r="J238">
-        <v>3.5640000000000001</v>
-      </c>
-      <c r="K238">
-        <v>13</v>
-      </c>
-      <c r="L238" t="s">
-        <v>20</v>
-      </c>
-      <c r="M238">
-        <v>10</v>
-      </c>
-      <c r="N238">
-        <v>54.443399999999997</v>
-      </c>
-      <c r="O238">
-        <v>168.857</v>
-      </c>
-      <c r="P238" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>6.6</v>
-      </c>
-      <c r="B239" s="1">
-        <v>42927.291666666664</v>
-      </c>
-      <c r="C239">
-        <v>5</v>
-      </c>
-      <c r="D239">
-        <v>4</v>
-      </c>
-      <c r="E239" t="s">
-        <v>18</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>704</v>
-      </c>
-      <c r="H239" t="s">
-        <v>19</v>
-      </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="J239">
-        <v>3.7730000000000001</v>
-      </c>
-      <c r="K239">
-        <v>37</v>
-      </c>
-      <c r="L239" t="s">
-        <v>20</v>
-      </c>
-      <c r="M239">
-        <v>10</v>
-      </c>
-      <c r="N239">
-        <v>-49.483699999999999</v>
-      </c>
-      <c r="O239">
-        <v>164.01599999999999</v>
-      </c>
-      <c r="P239" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>6.5</v>
-      </c>
-      <c r="B240" s="1">
-        <v>42922.335416666669</v>
-      </c>
-      <c r="C240">
-        <v>9</v>
-      </c>
-      <c r="D240">
-        <v>8</v>
-      </c>
-      <c r="E240" t="s">
-        <v>23</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>740</v>
-      </c>
-      <c r="H240" t="s">
-        <v>19</v>
-      </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
-      <c r="J240">
-        <v>4.1390000000000002</v>
-      </c>
-      <c r="K240">
-        <v>30</v>
-      </c>
-      <c r="L240" t="s">
-        <v>20</v>
-      </c>
-      <c r="M240">
-        <v>9</v>
-      </c>
-      <c r="N240">
-        <v>11.126899999999999</v>
-      </c>
-      <c r="O240">
-        <v>124.629</v>
-      </c>
-      <c r="P240" t="s">
-        <v>231</v>
-      </c>
-      <c r="R240" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>6.8</v>
-      </c>
-      <c r="B241" s="1">
-        <v>42908.521527777775</v>
-      </c>
-      <c r="C241">
-        <v>6</v>
-      </c>
-      <c r="D241">
-        <v>6</v>
-      </c>
-      <c r="E241" t="s">
-        <v>23</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1034</v>
-      </c>
-      <c r="H241" t="s">
-        <v>19</v>
-      </c>
-      <c r="I241">
-        <v>0</v>
-      </c>
-      <c r="J241">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="K241">
-        <v>38</v>
-      </c>
-      <c r="L241" t="s">
-        <v>20</v>
-      </c>
-      <c r="M241">
-        <v>38.119999999999997</v>
-      </c>
-      <c r="N241">
-        <v>13.7174</v>
-      </c>
-      <c r="O241">
-        <v>-90.971800000000002</v>
-      </c>
-      <c r="P241" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <v>6.9</v>
-      </c>
-      <c r="B242" s="1">
-        <v>42900.311805555553</v>
-      </c>
-      <c r="C242">
-        <v>8</v>
-      </c>
-      <c r="D242">
-        <v>6</v>
-      </c>
-      <c r="E242" t="s">
-        <v>23</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1188</v>
-      </c>
-      <c r="H242" t="s">
-        <v>19</v>
-      </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
-      <c r="J242">
-        <v>0.247</v>
-      </c>
-      <c r="K242">
-        <v>35</v>
-      </c>
-      <c r="L242" t="s">
-        <v>20</v>
-      </c>
-      <c r="M242">
-        <v>93</v>
-      </c>
-      <c r="N242">
-        <v>14.9091</v>
-      </c>
-      <c r="O242">
-        <v>-92.009200000000007</v>
-      </c>
-      <c r="P242" t="s">
-        <v>233</v>
-      </c>
-      <c r="R242" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <v>6.8</v>
-      </c>
-      <c r="B243" s="1">
-        <v>42888.933333333334</v>
-      </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-      <c r="D243">
-        <v>4</v>
-      </c>
-      <c r="E243" t="s">
-        <v>18</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>711</v>
-      </c>
-      <c r="H243" t="s">
-        <v>19</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
-      <c r="J243">
-        <v>2.3079999999999998</v>
-      </c>
-      <c r="K243">
-        <v>12</v>
-      </c>
-      <c r="L243" t="s">
-        <v>20</v>
-      </c>
-      <c r="M243">
-        <v>5</v>
-      </c>
-      <c r="N243">
-        <v>54.031199999999998</v>
-      </c>
-      <c r="O243">
-        <v>170.92</v>
-      </c>
-      <c r="P243" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <v>6.6</v>
-      </c>
-      <c r="B244" s="1">
-        <v>42884.607638888891</v>
-      </c>
-      <c r="C244">
-        <v>7</v>
-      </c>
-      <c r="D244">
-        <v>7</v>
-      </c>
-      <c r="E244" t="s">
-        <v>18</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244">
-        <v>678</v>
-      </c>
-      <c r="H244" t="s">
-        <v>19</v>
-      </c>
-      <c r="I244">
-        <v>0</v>
-      </c>
-      <c r="J244">
-        <v>2.3530000000000002</v>
-      </c>
-      <c r="K244">
-        <v>18</v>
-      </c>
-      <c r="L244" t="s">
-        <v>20</v>
-      </c>
-      <c r="M244">
-        <v>12</v>
-      </c>
-      <c r="N244">
-        <v>-1.2923</v>
-      </c>
-      <c r="O244">
-        <v>120.431</v>
-      </c>
-      <c r="P244" t="s">
-        <v>235</v>
-      </c>
-      <c r="R244" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <v>6.5</v>
-      </c>
-      <c r="B245" s="1">
-        <v>42865.974305555559</v>
-      </c>
-      <c r="C245">
-        <v>0</v>
-      </c>
-      <c r="D245">
-        <v>4</v>
-      </c>
-      <c r="E245" t="s">
-        <v>18</v>
-      </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>650</v>
-      </c>
-      <c r="H245" t="s">
-        <v>19</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245">
-        <v>6.4889999999999999</v>
-      </c>
-      <c r="K245">
-        <v>17</v>
-      </c>
-      <c r="L245" t="s">
-        <v>20</v>
-      </c>
-      <c r="M245">
-        <v>15</v>
-      </c>
-      <c r="N245">
-        <v>-56.414000000000001</v>
-      </c>
-      <c r="O245">
-        <v>-25.743200000000002</v>
-      </c>
-      <c r="P245" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A246">
-        <v>6.8</v>
-      </c>
-      <c r="B246" s="1">
-        <v>42864.577777777777</v>
-      </c>
-      <c r="C246">
-        <v>6</v>
-      </c>
-      <c r="D246">
-        <v>5</v>
-      </c>
-      <c r="E246" t="s">
-        <v>18</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246">
-        <v>713</v>
-      </c>
-      <c r="H246" t="s">
-        <v>19</v>
-      </c>
-      <c r="I246">
-        <v>0</v>
-      </c>
-      <c r="J246">
-        <v>7.4950000000000001</v>
-      </c>
-      <c r="K246">
-        <v>19</v>
-      </c>
-      <c r="L246" t="s">
-        <v>20</v>
-      </c>
-      <c r="M246">
-        <v>169</v>
-      </c>
-      <c r="N246">
-        <v>-14.5884</v>
-      </c>
-      <c r="O246">
-        <v>167.37700000000001</v>
-      </c>
-      <c r="P246" t="s">
-        <v>54</v>
-      </c>
-      <c r="R246" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <v>6.9</v>
-      </c>
-      <c r="B247" s="1">
-        <v>42853.849305555559</v>
-      </c>
-      <c r="C247">
-        <v>9</v>
-      </c>
-      <c r="D247">
-        <v>6</v>
-      </c>
-      <c r="E247" t="s">
-        <v>18</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>814</v>
-      </c>
-      <c r="H247" t="s">
-        <v>19</v>
-      </c>
-      <c r="I247">
-        <v>0</v>
-      </c>
-      <c r="J247">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="K247">
-        <v>14</v>
-      </c>
-      <c r="L247" t="s">
-        <v>20</v>
-      </c>
-      <c r="M247">
-        <v>26</v>
-      </c>
-      <c r="N247">
-        <v>5.5042999999999997</v>
-      </c>
-      <c r="O247">
-        <v>125.066</v>
-      </c>
-      <c r="P247" t="s">
-        <v>236</v>
-      </c>
-      <c r="R247" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <v>6.9</v>
-      </c>
-      <c r="B248" s="1">
-        <v>42849.901388888888</v>
-      </c>
-      <c r="C248">
-        <v>9</v>
-      </c>
-      <c r="D248">
-        <v>7</v>
-      </c>
-      <c r="E248" t="s">
-        <v>23</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1642</v>
-      </c>
-      <c r="H248" t="s">
-        <v>19</v>
-      </c>
-      <c r="I248">
-        <v>0</v>
-      </c>
-      <c r="J248">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="K248">
-        <v>39</v>
-      </c>
-      <c r="L248" t="s">
-        <v>20</v>
-      </c>
-      <c r="M248">
-        <v>28</v>
-      </c>
-      <c r="N248">
-        <v>-33.037500000000001</v>
-      </c>
-      <c r="O248">
-        <v>-72.061700000000002</v>
-      </c>
-      <c r="P248" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <v>6.5</v>
-      </c>
-      <c r="B249" s="1">
-        <v>42828.736111111109</v>
-      </c>
-      <c r="C249">
-        <v>7</v>
-      </c>
-      <c r="D249">
-        <v>8</v>
-      </c>
-      <c r="E249" t="s">
-        <v>18</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-      <c r="G249">
-        <v>1297</v>
-      </c>
-      <c r="H249" t="s">
-        <v>19</v>
-      </c>
-      <c r="I249">
-        <v>0</v>
-      </c>
-      <c r="J249">
-        <v>2.36</v>
-      </c>
-      <c r="K249">
-        <v>15</v>
-      </c>
-      <c r="L249" t="s">
-        <v>20</v>
-      </c>
-      <c r="M249">
-        <v>29</v>
-      </c>
-      <c r="N249">
-        <v>-22.6784</v>
-      </c>
-      <c r="O249">
-        <v>25.155799999999999</v>
-      </c>
-      <c r="P249" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q249" t="s">
-        <v>239</v>
-      </c>
-      <c r="R249" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A250">
-        <v>6.6</v>
-      </c>
-      <c r="B250" s="1">
-        <v>42823.17291666667</v>
-      </c>
-      <c r="C250">
-        <v>6</v>
-      </c>
-      <c r="D250">
-        <v>7</v>
-      </c>
-      <c r="E250" t="s">
-        <v>23</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>671</v>
-      </c>
-      <c r="H250" t="s">
-        <v>19</v>
-      </c>
-      <c r="I250">
-        <v>0</v>
-      </c>
-      <c r="J250">
-        <v>4.5910000000000002</v>
-      </c>
-      <c r="K250">
-        <v>14</v>
-      </c>
-      <c r="L250" t="s">
-        <v>20</v>
-      </c>
-      <c r="M250">
-        <v>17</v>
-      </c>
-      <c r="N250">
-        <v>56.940100000000001</v>
-      </c>
-      <c r="O250">
-        <v>162.786</v>
-      </c>
-      <c r="P250" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q250" t="s">
-        <v>44</v>
-      </c>
-      <c r="R250" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="1"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" s="1"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="1"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="1"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" s="1"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" s="1"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" s="1"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" s="1"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" s="1"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" s="1"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" s="1"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" s="1"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" s="1"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" s="1"/>
+    </row>
+    <row r="241" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B243" s="1"/>
+    </row>
+    <row r="244" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B244" s="1"/>
+    </row>
+    <row r="245" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B245" s="1"/>
+    </row>
+    <row r="246" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B246" s="1"/>
+    </row>
+    <row r="247" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B247" s="1"/>
+    </row>
+    <row r="248" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B248" s="1"/>
+    </row>
+    <row r="249" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B249" s="1"/>
+    </row>
+    <row r="250" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B250" s="1"/>
+      <c r="P250" s="2"/>
+    </row>
+    <row r="251" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">

--- a/EARFQUAKE csv database.xlsx
+++ b/EARFQUAKE csv database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C409D-95D3-4AE8-AB91-1C69AA9F6E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA88699-5A9C-4359-B412-EFF5E1FDAF58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" xr2:uid="{88E31ADE-4FEB-400E-A520-2677CDF51354}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="102">
   <si>
     <t>magnitude</t>
   </si>
@@ -331,120 +331,6 @@
   </si>
   <si>
     <t>Pֳ³lis, Cyprus</t>
-  </si>
-  <si>
-    <t>northern Qinghai, China</t>
-  </si>
-  <si>
-    <t>Lospalos, Timor Leste</t>
-  </si>
-  <si>
-    <t>Flores Sea</t>
-  </si>
-  <si>
-    <t>Hirara, Japan</t>
-  </si>
-  <si>
-    <t>ak</t>
-  </si>
-  <si>
-    <t>Chignik, Alaska</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
-    <t>Vanuatu region</t>
-  </si>
-  <si>
-    <t>Jiquilillo, Nicaragua</t>
-  </si>
-  <si>
-    <t>Acapulco, Mexico</t>
-  </si>
-  <si>
-    <t>South Sandwich Islands region</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Nippes, Haiti</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Perryville, Alaska</t>
-  </si>
-  <si>
-    <t>Pondaguitan, Philippines</t>
-  </si>
-  <si>
-    <t>Hukay, Philippines</t>
-  </si>
-  <si>
-    <t>Burica, Panama</t>
-  </si>
-  <si>
-    <t>Alo, Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>Southern Qinghai, China</t>
-  </si>
-  <si>
-    <t>Sinabang, Indonesia</t>
-  </si>
-  <si>
-    <t>Mauritius - Reunion region</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Haveluloto, Tonga</t>
-  </si>
-  <si>
-    <t>Pangai, Tonga</t>
-  </si>
-  <si>
-    <t>Ishinomaki, Japan</t>
-  </si>
-  <si>
-    <t>Ustג€™-Kamchatsk Staryy, Russia</t>
-  </si>
-  <si>
-    <t>Gisborne, New Zealand</t>
-  </si>
-  <si>
-    <t>South Shetland Islands</t>
-  </si>
-  <si>
-    <t>Turt, Mongolia</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Corral, Chile</t>
-  </si>
-  <si>
-    <t>Nֳ©on Karlovֳ¡sion, Greece</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>central Mid-Atlantic Ridge</t>
-  </si>
-  <si>
-    <t>Vallenar, Chile</t>
-  </si>
-  <si>
-    <t>Chile</t>
   </si>
 </sst>
 </file>
@@ -801,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F685E06-7BDD-4E61-9849-843FF8BC604C}">
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="S128" sqref="S128"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4726,2608 +4612,162 @@
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>6.6</v>
-      </c>
-      <c r="B76" s="1">
-        <v>44568.739583333336</v>
-      </c>
-      <c r="C76">
-        <v>9</v>
-      </c>
-      <c r="D76">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>51</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>1012</v>
-      </c>
-      <c r="H76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>2.6850000000000001</v>
-      </c>
-      <c r="K76">
-        <v>13</v>
-      </c>
-      <c r="L76" t="s">
-        <v>20</v>
-      </c>
-      <c r="M76">
-        <v>13</v>
-      </c>
-      <c r="N76">
-        <v>37.816699999999997</v>
-      </c>
-      <c r="O76">
-        <v>101.29900000000001</v>
-      </c>
-      <c r="P76" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>44</v>
-      </c>
-      <c r="R76" t="s">
-        <v>84</v>
-      </c>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>7.3</v>
-      </c>
-      <c r="B77" s="1">
-        <v>44559.767361111109</v>
-      </c>
-      <c r="C77">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>921</v>
-      </c>
-      <c r="H77" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>3.7130000000000001</v>
-      </c>
-      <c r="K77">
-        <v>19</v>
-      </c>
-      <c r="L77" t="s">
-        <v>20</v>
-      </c>
-      <c r="M77">
-        <v>165.49</v>
-      </c>
-      <c r="N77">
-        <v>-7.5923999999999996</v>
-      </c>
-      <c r="O77">
-        <v>127.581</v>
-      </c>
-      <c r="P77" t="s">
-        <v>103</v>
-      </c>
-      <c r="R77" t="s">
-        <v>40</v>
-      </c>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>7.3</v>
-      </c>
-      <c r="B78" s="1">
-        <v>44544.138888888891</v>
-      </c>
-      <c r="C78">
-        <v>9</v>
-      </c>
-      <c r="D78">
-        <v>5</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>854</v>
-      </c>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="K78">
-        <v>32</v>
-      </c>
-      <c r="L78" t="s">
-        <v>20</v>
-      </c>
-      <c r="M78">
-        <v>14.27</v>
-      </c>
-      <c r="N78">
-        <v>-7.6032999999999999</v>
-      </c>
-      <c r="O78">
-        <v>122.2</v>
-      </c>
-      <c r="P78" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>44</v>
-      </c>
-      <c r="R78" t="s">
-        <v>40</v>
-      </c>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>7.5</v>
-      </c>
-      <c r="B79" s="1">
-        <v>44528.452777777777</v>
-      </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1094</v>
-      </c>
-      <c r="H79" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>4.9509999999999996</v>
-      </c>
-      <c r="K79">
-        <v>40</v>
-      </c>
-      <c r="L79" t="s">
-        <v>20</v>
-      </c>
-      <c r="M79">
-        <v>126</v>
-      </c>
-      <c r="N79">
-        <v>-4.4897999999999998</v>
-      </c>
-      <c r="O79">
-        <v>-76.846100000000007</v>
-      </c>
-      <c r="P79" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>26</v>
-      </c>
-      <c r="R79" t="s">
-        <v>91</v>
-      </c>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>6.6</v>
-      </c>
-      <c r="B80" s="1">
-        <v>44510.65625</v>
-      </c>
-      <c r="C80">
-        <v>7</v>
-      </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>688</v>
-      </c>
-      <c r="H80" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>3.2589999999999999</v>
-      </c>
-      <c r="K80">
-        <v>15</v>
-      </c>
-      <c r="L80" t="s">
-        <v>20</v>
-      </c>
-      <c r="M80">
-        <v>12</v>
-      </c>
-      <c r="N80">
-        <v>23.541399999999999</v>
-      </c>
-      <c r="O80">
-        <v>126.48</v>
-      </c>
-      <c r="P80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>6.9</v>
-      </c>
-      <c r="B81" s="1">
-        <v>44480.381944444445</v>
-      </c>
-      <c r="C81">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>6</v>
-      </c>
-      <c r="E81" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>995</v>
-      </c>
-      <c r="H81" t="s">
-        <v>106</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81" t="s">
-        <v>20</v>
-      </c>
-      <c r="M81">
-        <v>51.6</v>
-      </c>
-      <c r="N81">
-        <v>56.258099999999999</v>
-      </c>
-      <c r="O81">
-        <v>-156.49199999999999</v>
-      </c>
-      <c r="P81" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>76</v>
-      </c>
-      <c r="R81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>6.9</v>
-      </c>
-      <c r="B82" s="1">
-        <v>44478.456944444442</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>740</v>
-      </c>
-      <c r="H82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>4.7779999999999996</v>
-      </c>
-      <c r="K82">
-        <v>31</v>
-      </c>
-      <c r="L82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M82">
-        <v>535</v>
-      </c>
-      <c r="N82">
-        <v>-21.170400000000001</v>
-      </c>
-      <c r="O82">
-        <v>174.54</v>
-      </c>
-      <c r="P82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>7.3</v>
-      </c>
-      <c r="B83" s="1">
-        <v>44471.270138888889</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-      <c r="E83" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>826</v>
-      </c>
-      <c r="H83" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>4.4930000000000003</v>
-      </c>
-      <c r="K83">
-        <v>32</v>
-      </c>
-      <c r="L83" t="s">
-        <v>20</v>
-      </c>
-      <c r="M83">
-        <v>527</v>
-      </c>
-      <c r="N83">
-        <v>-21.1036</v>
-      </c>
-      <c r="O83">
-        <v>174.89500000000001</v>
-      </c>
-      <c r="P83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>6.5</v>
-      </c>
-      <c r="B84" s="1">
-        <v>44461.414583333331</v>
-      </c>
-      <c r="C84">
-        <v>7</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>684</v>
-      </c>
-      <c r="H84" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="K84">
-        <v>114</v>
-      </c>
-      <c r="L84" t="s">
-        <v>20</v>
-      </c>
-      <c r="M84">
-        <v>21</v>
-      </c>
-      <c r="N84">
-        <v>12.159800000000001</v>
-      </c>
-      <c r="O84">
-        <v>-87.854200000000006</v>
-      </c>
-      <c r="P84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>7</v>
-      </c>
-      <c r="B85" s="1">
-        <v>44447.074305555558</v>
-      </c>
-      <c r="C85">
-        <v>8</v>
-      </c>
-      <c r="D85">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>2504</v>
-      </c>
-      <c r="H85" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K85">
-        <v>43</v>
-      </c>
-      <c r="L85" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85">
-        <v>20</v>
-      </c>
-      <c r="N85">
-        <v>16.950199999999999</v>
-      </c>
-      <c r="O85">
-        <v>-99.787700000000001</v>
-      </c>
-      <c r="P85" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>76</v>
-      </c>
-      <c r="R85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>7.1</v>
-      </c>
-      <c r="B86" s="1">
-        <v>44430.897916666669</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>4</v>
-      </c>
-      <c r="E86" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>776</v>
-      </c>
-      <c r="H86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="K86">
-        <v>32</v>
-      </c>
-      <c r="L86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86">
-        <v>6</v>
-      </c>
-      <c r="N86">
-        <v>-60.302599999999998</v>
-      </c>
-      <c r="O86">
-        <v>-24.999199999999998</v>
-      </c>
-      <c r="P86" t="s">
-        <v>112</v>
-      </c>
-      <c r="R86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>6.6</v>
-      </c>
-      <c r="B87" s="1">
-        <v>44430.03125</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>670</v>
-      </c>
-      <c r="H87" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>8.8650000000000002</v>
-      </c>
-      <c r="K87">
-        <v>19</v>
-      </c>
-      <c r="L87" t="s">
-        <v>20</v>
-      </c>
-      <c r="M87">
-        <v>7</v>
-      </c>
-      <c r="N87">
-        <v>-60.1023</v>
-      </c>
-      <c r="O87">
-        <v>-24.460799999999999</v>
-      </c>
-      <c r="P87" t="s">
-        <v>112</v>
-      </c>
-      <c r="R87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>6.9</v>
-      </c>
-      <c r="B88" s="1">
-        <v>44426.423611111109</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-      <c r="D88">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>741</v>
-      </c>
-      <c r="H88" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="K88">
-        <v>54</v>
-      </c>
-      <c r="L88" t="s">
-        <v>20</v>
-      </c>
-      <c r="M88">
-        <v>93</v>
-      </c>
-      <c r="N88">
-        <v>-14.891999999999999</v>
-      </c>
-      <c r="O88">
-        <v>167.08500000000001</v>
-      </c>
-      <c r="P88" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>67</v>
-      </c>
-      <c r="R88" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>6.9</v>
-      </c>
-      <c r="B89" s="1">
-        <v>44424.465277777781</v>
-      </c>
-      <c r="C89">
-        <v>6</v>
-      </c>
-      <c r="D89">
-        <v>4</v>
-      </c>
-      <c r="E89" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>734</v>
-      </c>
-      <c r="H89" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>8.3629999999999995</v>
-      </c>
-      <c r="K89">
-        <v>48</v>
-      </c>
-      <c r="L89" t="s">
-        <v>20</v>
-      </c>
-      <c r="M89">
-        <v>16.7</v>
-      </c>
-      <c r="N89">
-        <v>-58.381399999999999</v>
-      </c>
-      <c r="O89">
-        <v>-23.331800000000001</v>
-      </c>
-      <c r="P89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>7.2</v>
-      </c>
-      <c r="B90" s="1">
-        <v>44422.520138888889</v>
-      </c>
-      <c r="C90">
-        <v>9</v>
-      </c>
-      <c r="D90">
-        <v>8</v>
-      </c>
-      <c r="E90" t="s">
-        <v>61</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>2331</v>
-      </c>
-      <c r="H90" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="K90">
-        <v>23</v>
-      </c>
-      <c r="L90" t="s">
-        <v>20</v>
-      </c>
-      <c r="M90">
-        <v>10</v>
-      </c>
-      <c r="N90">
-        <v>18.3521</v>
-      </c>
-      <c r="O90">
-        <v>-73.480400000000003</v>
-      </c>
-      <c r="P90" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>76</v>
-      </c>
-      <c r="R90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>6.9</v>
-      </c>
-      <c r="B91" s="1">
-        <v>44422.497916666667</v>
-      </c>
-      <c r="C91">
-        <v>5</v>
-      </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-      <c r="E91" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>738</v>
-      </c>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91" t="s">
-        <v>20</v>
-      </c>
-      <c r="M91">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="N91">
-        <v>55.236400000000003</v>
-      </c>
-      <c r="O91">
-        <v>-157.70699999999999</v>
-      </c>
-      <c r="P91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>6.9</v>
-      </c>
-      <c r="B92" s="1">
-        <v>44422.497916666667</v>
-      </c>
-      <c r="C92">
-        <v>5</v>
-      </c>
-      <c r="D92">
-        <v>4</v>
-      </c>
-      <c r="E92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>738</v>
-      </c>
-      <c r="H92" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>1.173</v>
-      </c>
-      <c r="K92">
-        <v>36</v>
-      </c>
-      <c r="L92" t="s">
-        <v>20</v>
-      </c>
-      <c r="M92">
-        <v>20.74</v>
-      </c>
-      <c r="N92">
-        <v>55.265700000000002</v>
-      </c>
-      <c r="O92">
-        <v>-157.68</v>
-      </c>
-      <c r="P92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>8.1</v>
-      </c>
-      <c r="B93" s="1">
-        <v>44420.774305555555</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>7</v>
-      </c>
-      <c r="E93" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>1009</v>
-      </c>
-      <c r="H93" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>7.4630000000000001</v>
-      </c>
-      <c r="K93">
-        <v>78</v>
-      </c>
-      <c r="L93" t="s">
-        <v>20</v>
-      </c>
-      <c r="M93">
-        <v>22.79</v>
-      </c>
-      <c r="N93">
-        <v>-58.415700000000001</v>
-      </c>
-      <c r="O93">
-        <v>-25.320599999999999</v>
-      </c>
-      <c r="P93" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>7.5</v>
-      </c>
-      <c r="B94" s="1">
-        <v>44420.772222222222</v>
-      </c>
-      <c r="C94">
-        <v>9</v>
-      </c>
-      <c r="D94">
-        <v>6</v>
-      </c>
-      <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>868</v>
-      </c>
-      <c r="H94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>7.2270000000000003</v>
-      </c>
-      <c r="K94">
-        <v>38</v>
-      </c>
-      <c r="L94" t="s">
-        <v>20</v>
-      </c>
-      <c r="M94">
-        <v>47.23</v>
-      </c>
-      <c r="N94">
-        <v>-57.5959</v>
-      </c>
-      <c r="O94">
-        <v>-25.1874</v>
-      </c>
-      <c r="P94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>7.1</v>
-      </c>
-      <c r="B95" s="1">
-        <v>44419.740277777775</v>
-      </c>
-      <c r="C95">
-        <v>9</v>
-      </c>
-      <c r="D95">
-        <v>7</v>
-      </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>846</v>
-      </c>
-      <c r="H95" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>1.2729999999999999</v>
-      </c>
-      <c r="K95">
-        <v>25</v>
-      </c>
-      <c r="L95" t="s">
-        <v>20</v>
-      </c>
-      <c r="M95">
-        <v>55.14</v>
-      </c>
-      <c r="N95">
-        <v>6.4546999999999999</v>
-      </c>
-      <c r="O95">
-        <v>126.742</v>
-      </c>
-      <c r="P95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B96" s="1">
-        <v>44406.260416666664</v>
-      </c>
-      <c r="C96">
-        <v>8</v>
-      </c>
-      <c r="D96">
-        <v>6</v>
-      </c>
-      <c r="E96" t="s">
-        <v>18</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1237</v>
-      </c>
-      <c r="H96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0.875</v>
-      </c>
-      <c r="K96">
-        <v>66</v>
-      </c>
-      <c r="L96" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96">
-        <v>46.66</v>
-      </c>
-      <c r="N96">
-        <v>55.474200000000003</v>
-      </c>
-      <c r="O96">
-        <v>-157.917</v>
-      </c>
-      <c r="P96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B97" s="1">
-        <v>44406.260416666664</v>
-      </c>
-      <c r="C97">
-        <v>8</v>
-      </c>
-      <c r="D97">
-        <v>7</v>
-      </c>
-      <c r="E97" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1252</v>
-      </c>
-      <c r="H97" t="s">
-        <v>106</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97" t="s">
-        <v>20</v>
-      </c>
-      <c r="M97">
-        <v>35</v>
-      </c>
-      <c r="N97">
-        <v>55.315399999999997</v>
-      </c>
-      <c r="O97">
-        <v>-157.82900000000001</v>
-      </c>
-      <c r="P97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>6.7</v>
-      </c>
-      <c r="B98" s="1">
-        <v>44400.866666666669</v>
-      </c>
-      <c r="C98">
-        <v>8</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>935</v>
-      </c>
-      <c r="H98" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>8.1389999999999993</v>
-      </c>
-      <c r="K98">
-        <v>12</v>
-      </c>
-      <c r="L98" t="s">
-        <v>20</v>
-      </c>
-      <c r="M98">
-        <v>110</v>
-      </c>
-      <c r="N98">
-        <v>13.6989</v>
-      </c>
-      <c r="O98">
-        <v>120.71299999999999</v>
-      </c>
-      <c r="P98" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>44</v>
-      </c>
-      <c r="R98" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>6.7</v>
-      </c>
-      <c r="B99" s="1">
-        <v>44398.885416666664</v>
-      </c>
-      <c r="C99">
-        <v>6</v>
-      </c>
-      <c r="D99">
-        <v>6</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>830</v>
-      </c>
-      <c r="H99" t="s">
-        <v>19</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>1.395</v>
-      </c>
-      <c r="K99">
-        <v>61</v>
-      </c>
-      <c r="L99" t="s">
-        <v>20</v>
-      </c>
-      <c r="M99">
-        <v>10</v>
-      </c>
-      <c r="N99">
-        <v>7.5903999999999998</v>
-      </c>
-      <c r="O99">
-        <v>-82.881299999999996</v>
-      </c>
-      <c r="P99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>6.5</v>
-      </c>
-      <c r="B100" s="1">
-        <v>44367.711805555555</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>4</v>
-      </c>
-      <c r="E100" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>650</v>
-      </c>
-      <c r="H100" t="s">
-        <v>19</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>7.9939999999999998</v>
-      </c>
-      <c r="K100">
-        <v>24</v>
-      </c>
-      <c r="L100" t="s">
-        <v>20</v>
-      </c>
-      <c r="M100">
-        <v>25</v>
-      </c>
-      <c r="N100">
-        <v>-30.214400000000001</v>
-      </c>
-      <c r="O100">
-        <v>-177.773</v>
-      </c>
-      <c r="P100" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>6.5</v>
-      </c>
-      <c r="B101" s="1">
-        <v>44337.925694444442</v>
-      </c>
-      <c r="C101">
-        <v>5</v>
-      </c>
-      <c r="D101">
-        <v>7</v>
-      </c>
-      <c r="E101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>652</v>
-      </c>
-      <c r="H101" t="s">
-        <v>19</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>4.5179999999999998</v>
-      </c>
-      <c r="K101">
-        <v>44</v>
-      </c>
-      <c r="L101" t="s">
-        <v>20</v>
-      </c>
-      <c r="M101">
-        <v>10</v>
-      </c>
-      <c r="N101">
-        <v>-16.479600000000001</v>
-      </c>
-      <c r="O101">
-        <v>-177.35599999999999</v>
-      </c>
-      <c r="P101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>7.3</v>
-      </c>
-      <c r="B102" s="1">
-        <v>44337.75277777778</v>
-      </c>
-      <c r="C102">
-        <v>9</v>
-      </c>
-      <c r="D102">
-        <v>9</v>
-      </c>
-      <c r="E102" t="s">
-        <v>51</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>1025</v>
-      </c>
-      <c r="H102" t="s">
-        <v>19</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>4.6550000000000002</v>
-      </c>
-      <c r="K102">
-        <v>9</v>
-      </c>
-      <c r="L102" t="s">
-        <v>20</v>
-      </c>
-      <c r="M102">
-        <v>10</v>
-      </c>
-      <c r="N102">
-        <v>34.586100000000002</v>
-      </c>
-      <c r="O102">
-        <v>98.255099999999999</v>
-      </c>
-      <c r="P102" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>44</v>
-      </c>
-      <c r="R102" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>6.7</v>
-      </c>
-      <c r="B103" s="1">
-        <v>44330.272916666669</v>
-      </c>
-      <c r="C103">
-        <v>8</v>
-      </c>
-      <c r="D103">
-        <v>4</v>
-      </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>698</v>
-      </c>
-      <c r="H103" t="s">
-        <v>19</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>1.4870000000000001</v>
-      </c>
-      <c r="K103">
-        <v>37</v>
-      </c>
-      <c r="L103" t="s">
-        <v>20</v>
-      </c>
-      <c r="M103">
-        <v>11</v>
-      </c>
-      <c r="N103">
-        <v>0.16839999999999999</v>
-      </c>
-      <c r="O103">
-        <v>96.647499999999994</v>
-      </c>
-      <c r="P103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>6.7</v>
-      </c>
-      <c r="B104" s="1">
-        <v>44328.586805555555</v>
-      </c>
-      <c r="C104">
-        <v>9</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>694</v>
-      </c>
-      <c r="H104" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>10.669</v>
-      </c>
-      <c r="K104">
-        <v>45</v>
-      </c>
-      <c r="L104" t="s">
-        <v>20</v>
-      </c>
-      <c r="M104">
-        <v>10</v>
-      </c>
-      <c r="N104">
-        <v>-17.249500000000001</v>
-      </c>
-      <c r="O104">
-        <v>66.374499999999998</v>
-      </c>
-      <c r="P104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>6.9</v>
-      </c>
-      <c r="B105" s="1">
-        <v>44317.060416666667</v>
-      </c>
-      <c r="C105">
-        <v>7</v>
-      </c>
-      <c r="D105">
-        <v>6</v>
-      </c>
-      <c r="E105" t="s">
-        <v>18</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <v>919</v>
-      </c>
-      <c r="H105" t="s">
-        <v>19</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>2.6190000000000002</v>
-      </c>
-      <c r="K105">
-        <v>35</v>
-      </c>
-      <c r="L105" t="s">
-        <v>20</v>
-      </c>
-      <c r="M105">
-        <v>43</v>
-      </c>
-      <c r="N105">
-        <v>38.229599999999998</v>
-      </c>
-      <c r="O105">
-        <v>141.66499999999999</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>44</v>
-      </c>
-      <c r="R105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>6.5</v>
-      </c>
-      <c r="B106" s="1">
-        <v>44311.936111111114</v>
-      </c>
-      <c r="C106">
-        <v>4</v>
-      </c>
-      <c r="D106">
-        <v>4</v>
-      </c>
-      <c r="E106" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>651</v>
-      </c>
-      <c r="H106" t="s">
-        <v>19</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>5.931</v>
-      </c>
-      <c r="K106">
-        <v>20</v>
-      </c>
-      <c r="L106" t="s">
-        <v>20</v>
-      </c>
-      <c r="M106">
-        <v>246</v>
-      </c>
-      <c r="N106">
-        <v>-21.685700000000001</v>
-      </c>
-      <c r="O106">
-        <v>-177.06399999999999</v>
-      </c>
-      <c r="P106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>6.5</v>
-      </c>
-      <c r="B107" s="1">
-        <v>44310.015972222223</v>
-      </c>
-      <c r="C107">
-        <v>6</v>
-      </c>
-      <c r="D107">
-        <v>4</v>
-      </c>
-      <c r="E107" t="s">
-        <v>18</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>652</v>
-      </c>
-      <c r="H107" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>10.404999999999999</v>
-      </c>
-      <c r="K107">
-        <v>19</v>
-      </c>
-      <c r="L107" t="s">
-        <v>20</v>
-      </c>
-      <c r="M107">
-        <v>301</v>
-      </c>
-      <c r="N107">
-        <v>-18.920400000000001</v>
-      </c>
-      <c r="O107">
-        <v>-176.23500000000001</v>
-      </c>
-      <c r="P107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>7</v>
-      </c>
-      <c r="B108" s="1">
-        <v>44275.381249999999</v>
-      </c>
-      <c r="C108">
-        <v>7</v>
-      </c>
-      <c r="D108">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108">
-        <v>1052</v>
-      </c>
-      <c r="H108" t="s">
-        <v>19</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>2.3780000000000001</v>
-      </c>
-      <c r="K108">
-        <v>35</v>
-      </c>
-      <c r="L108" t="s">
-        <v>20</v>
-      </c>
-      <c r="M108">
-        <v>43</v>
-      </c>
-      <c r="N108">
-        <v>38.475200000000001</v>
-      </c>
-      <c r="O108">
-        <v>141.607</v>
-      </c>
-      <c r="P108" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>44</v>
-      </c>
-      <c r="R108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>6.6</v>
-      </c>
-      <c r="B109" s="1">
-        <v>44271.776388888888</v>
-      </c>
-      <c r="C109">
-        <v>5</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>672</v>
-      </c>
-      <c r="H109" t="s">
-        <v>19</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>3.1829999999999998</v>
-      </c>
-      <c r="K109">
-        <v>18</v>
-      </c>
-      <c r="L109" t="s">
-        <v>20</v>
-      </c>
-      <c r="M109">
-        <v>13.23</v>
-      </c>
-      <c r="N109">
-        <v>54.701799999999999</v>
-      </c>
-      <c r="O109">
-        <v>163.208</v>
-      </c>
-      <c r="P109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>6.5</v>
-      </c>
-      <c r="B110" s="1">
-        <v>44259.966666666667</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>4</v>
-      </c>
-      <c r="E110" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>650</v>
-      </c>
-      <c r="H110" t="s">
-        <v>19</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>11.763999999999999</v>
-      </c>
-      <c r="K110">
-        <v>25</v>
-      </c>
-      <c r="L110" t="s">
-        <v>72</v>
-      </c>
-      <c r="M110">
-        <v>24</v>
-      </c>
-      <c r="N110">
-        <v>-28.479199999999999</v>
-      </c>
-      <c r="O110">
-        <v>-176.619</v>
-      </c>
-      <c r="P110" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>8.1</v>
-      </c>
-      <c r="B111" s="1">
-        <v>44259.811111111114</v>
-      </c>
-      <c r="C111">
-        <v>9</v>
-      </c>
-      <c r="D111">
-        <v>8</v>
-      </c>
-      <c r="E111" t="s">
-        <v>18</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111">
-        <v>1021</v>
-      </c>
-      <c r="H111" t="s">
-        <v>19</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="K111">
-        <v>21</v>
-      </c>
-      <c r="L111" t="s">
-        <v>20</v>
-      </c>
-      <c r="M111">
-        <v>28.93</v>
-      </c>
-      <c r="N111">
-        <v>-29.746600000000001</v>
-      </c>
-      <c r="O111">
-        <v>-177.22399999999999</v>
-      </c>
-      <c r="P111" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>7.4</v>
-      </c>
-      <c r="B112" s="1">
-        <v>44259.736805555556</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112">
-        <v>7</v>
-      </c>
-      <c r="E112" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>843</v>
-      </c>
-      <c r="H112" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0.437</v>
-      </c>
-      <c r="K112">
-        <v>30</v>
-      </c>
-      <c r="L112" t="s">
-        <v>20</v>
-      </c>
-      <c r="M112">
-        <v>43</v>
-      </c>
-      <c r="N112">
-        <v>-29.613099999999999</v>
-      </c>
-      <c r="O112">
-        <v>-177.84200000000001</v>
-      </c>
-      <c r="P112" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>7.3</v>
-      </c>
-      <c r="B113" s="1">
-        <v>44259.560416666667</v>
-      </c>
-      <c r="C113">
-        <v>7</v>
-      </c>
-      <c r="D113">
-        <v>6</v>
-      </c>
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>932</v>
-      </c>
-      <c r="H113" t="s">
-        <v>19</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="K113">
-        <v>24</v>
-      </c>
-      <c r="L113" t="s">
-        <v>20</v>
-      </c>
-      <c r="M113">
-        <v>10</v>
-      </c>
-      <c r="N113">
-        <v>-37.595999999999997</v>
-      </c>
-      <c r="O113">
-        <v>179.54400000000001</v>
-      </c>
-      <c r="P113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>7.1</v>
-      </c>
-      <c r="B114" s="1">
-        <v>44240.588194444441</v>
-      </c>
-      <c r="C114">
-        <v>9</v>
-      </c>
-      <c r="D114">
-        <v>8</v>
-      </c>
-      <c r="E114" t="s">
-        <v>51</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>1612</v>
-      </c>
-      <c r="H114" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>3.085</v>
-      </c>
-      <c r="K114">
-        <v>11</v>
-      </c>
-      <c r="L114" t="s">
-        <v>20</v>
-      </c>
-      <c r="M114">
-        <v>43.98</v>
-      </c>
-      <c r="N114">
-        <v>37.685600000000001</v>
-      </c>
-      <c r="O114">
-        <v>141.99199999999999</v>
-      </c>
-      <c r="P114" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>7.7</v>
-      </c>
-      <c r="B115" s="1">
-        <v>44237.554861111108</v>
-      </c>
-      <c r="C115">
-        <v>9</v>
-      </c>
-      <c r="D115">
-        <v>4</v>
-      </c>
-      <c r="E115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115">
-        <v>918</v>
-      </c>
-      <c r="H115" t="s">
-        <v>19</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>7.9889999999999999</v>
-      </c>
-      <c r="K115">
-        <v>15</v>
-      </c>
-      <c r="L115" t="s">
-        <v>20</v>
-      </c>
-      <c r="M115">
-        <v>10</v>
-      </c>
-      <c r="N115">
-        <v>-23.278700000000001</v>
-      </c>
-      <c r="O115">
-        <v>171.489</v>
-      </c>
-      <c r="P115" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>6.9</v>
-      </c>
-      <c r="B116" s="1">
-        <v>44219.98333333333</v>
-      </c>
-      <c r="C116">
-        <v>9</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>739</v>
-      </c>
-      <c r="H116" t="s">
-        <v>19</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>1.55</v>
-      </c>
-      <c r="K116">
-        <v>16</v>
-      </c>
-      <c r="L116" t="s">
-        <v>20</v>
-      </c>
-      <c r="M116">
-        <v>15</v>
-      </c>
-      <c r="N116">
-        <v>-61.848399999999998</v>
-      </c>
-      <c r="O116">
-        <v>-55.558999999999997</v>
-      </c>
-      <c r="P116" t="s">
-        <v>130</v>
-      </c>
-      <c r="R116" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>7</v>
-      </c>
-      <c r="B117" s="1">
-        <v>44217.515972222223</v>
-      </c>
-      <c r="C117">
-        <v>7</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117" t="s">
-        <v>18</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117">
-        <v>802</v>
-      </c>
-      <c r="H117" t="s">
-        <v>19</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>2.8210000000000002</v>
-      </c>
-      <c r="K117">
-        <v>15</v>
-      </c>
-      <c r="L117" t="s">
-        <v>20</v>
-      </c>
-      <c r="M117">
-        <v>80</v>
-      </c>
-      <c r="N117">
-        <v>5.0073999999999996</v>
-      </c>
-      <c r="O117">
-        <v>127.517</v>
-      </c>
-      <c r="P117" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>6.7</v>
-      </c>
-      <c r="B118" s="1">
-        <v>44207.897222222222</v>
-      </c>
-      <c r="C118">
-        <v>8</v>
-      </c>
-      <c r="D118">
-        <v>8</v>
-      </c>
-      <c r="E118" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>776</v>
-      </c>
-      <c r="H118" t="s">
-        <v>19</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>2.0430000000000001</v>
-      </c>
-      <c r="K118">
-        <v>22</v>
-      </c>
-      <c r="L118" t="s">
-        <v>20</v>
-      </c>
-      <c r="M118">
-        <v>10</v>
-      </c>
-      <c r="N118">
-        <v>51.240699999999997</v>
-      </c>
-      <c r="O118">
-        <v>100.443</v>
-      </c>
-      <c r="P118" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>44</v>
-      </c>
-      <c r="R118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>6.7</v>
-      </c>
-      <c r="B119" s="1">
-        <v>44192.902083333334</v>
-      </c>
-      <c r="C119">
-        <v>5</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>776</v>
-      </c>
-      <c r="H119" t="s">
-        <v>19</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>1.319</v>
-      </c>
-      <c r="K119">
-        <v>19</v>
-      </c>
-      <c r="L119" t="s">
-        <v>20</v>
-      </c>
-      <c r="M119">
-        <v>10</v>
-      </c>
-      <c r="N119">
-        <v>-39.3264</v>
-      </c>
-      <c r="O119">
-        <v>-74.906700000000001</v>
-      </c>
-      <c r="P119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>7</v>
-      </c>
-      <c r="B120" s="1">
-        <v>44134.493750000001</v>
-      </c>
-      <c r="C120">
-        <v>8</v>
-      </c>
-      <c r="D120">
-        <v>7</v>
-      </c>
-      <c r="E120" t="s">
-        <v>51</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>1527</v>
-      </c>
-      <c r="H120" t="s">
-        <v>19</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>1.518</v>
-      </c>
-      <c r="K120">
-        <v>18</v>
-      </c>
-      <c r="L120" t="s">
-        <v>20</v>
-      </c>
-      <c r="M120">
-        <v>21</v>
-      </c>
-      <c r="N120">
-        <v>37.897300000000001</v>
-      </c>
-      <c r="O120">
-        <v>26.795300000000001</v>
-      </c>
-      <c r="P120" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>135</v>
-      </c>
-      <c r="R120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>7.6</v>
-      </c>
-      <c r="B121" s="1">
-        <v>44123.870833333334</v>
-      </c>
-      <c r="C121">
-        <v>9</v>
-      </c>
-      <c r="D121">
-        <v>7</v>
-      </c>
-      <c r="E121" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>1165</v>
-      </c>
-      <c r="H121" t="s">
-        <v>19</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0.23</v>
-      </c>
-      <c r="K121">
-        <v>36</v>
-      </c>
-      <c r="L121" t="s">
-        <v>20</v>
-      </c>
-      <c r="M121">
-        <v>28.37</v>
-      </c>
-      <c r="N121">
-        <v>54.661999999999999</v>
-      </c>
-      <c r="O121">
-        <v>-159.67500000000001</v>
-      </c>
-      <c r="P121" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>76</v>
-      </c>
-      <c r="R121" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>6.9</v>
-      </c>
-      <c r="B122" s="1">
-        <v>44092.904861111114</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>3</v>
-      </c>
-      <c r="E122" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>732</v>
-      </c>
-      <c r="H122" t="s">
-        <v>19</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>11.255000000000001</v>
-      </c>
-      <c r="K122">
-        <v>16</v>
-      </c>
-      <c r="L122" t="s">
-        <v>20</v>
-      </c>
-      <c r="M122">
-        <v>10</v>
-      </c>
-      <c r="N122">
-        <v>0.96040000000000003</v>
-      </c>
-      <c r="O122">
-        <v>-26.833200000000001</v>
-      </c>
-      <c r="P122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>6.5</v>
-      </c>
-      <c r="B123" s="1">
-        <v>44075.881249999999</v>
-      </c>
-      <c r="C123">
-        <v>6</v>
-      </c>
-      <c r="D123">
-        <v>6</v>
-      </c>
-      <c r="E123" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>674</v>
-      </c>
-      <c r="H123" t="s">
-        <v>19</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="K123">
-        <v>49</v>
-      </c>
-      <c r="L123" t="s">
-        <v>20</v>
-      </c>
-      <c r="M123">
-        <v>16</v>
-      </c>
-      <c r="N123">
-        <v>-27.9285</v>
-      </c>
-      <c r="O123">
-        <v>-71.393699999999995</v>
-      </c>
-      <c r="P123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>6.8</v>
-      </c>
-      <c r="B124" s="1">
-        <v>44075.17291666667</v>
-      </c>
-      <c r="C124">
-        <v>6</v>
-      </c>
-      <c r="D124">
-        <v>7</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>824</v>
-      </c>
-      <c r="H124" t="s">
-        <v>19</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0.312</v>
-      </c>
-      <c r="K124">
-        <v>69</v>
-      </c>
-      <c r="L124" t="s">
-        <v>20</v>
-      </c>
-      <c r="M124">
-        <v>21</v>
-      </c>
-      <c r="N124">
-        <v>-28.013000000000002</v>
-      </c>
-      <c r="O124">
-        <v>-71.195800000000006</v>
-      </c>
-      <c r="P124" t="s">
-        <v>138</v>
-      </c>
-      <c r="R124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>6.5</v>
-      </c>
-      <c r="B125" s="1">
-        <v>44073.888888888891</v>
-      </c>
-      <c r="C125">
-        <v>4</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>18</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>651</v>
-      </c>
-      <c r="H125" t="s">
-        <v>19</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>15.394</v>
-      </c>
-      <c r="K125">
-        <v>31</v>
-      </c>
-      <c r="L125" t="s">
-        <v>20</v>
-      </c>
-      <c r="M125">
-        <v>10</v>
-      </c>
-      <c r="N125">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="O125">
-        <v>-29.704599999999999</v>
-      </c>
-      <c r="P125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
